--- a/testing/testing_subsets/AST_48h_subset/input/plate_layout.xlsx
+++ b/testing/testing_subsets/AST_48h_subset/input/plate_layout.xlsx
@@ -614,8 +614,8 @@
   </sheetPr>
   <dimension ref="B2:N402"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N58" activeCellId="0" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1536,7 +1536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="12" t="s">
         <v>9</v>
       </c>
@@ -3683,7 +3683,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/testing/testing_subsets/AST_48h_subset/input/plate_layout.xlsx
+++ b/testing/testing_subsets/AST_48h_subset/input/plate_layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mschikora/samba/scripts/Q-PHAST/testing/testing_subsets/AST_48h_subset/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CC8C7C-3261-F84C-936C-6A575D3F4E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A833AE-7B5F-F341-892A-3C998202A011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25240" windowHeight="14620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Strains</t>
   </si>
@@ -436,29 +436,6 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -545,6 +522,29 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -934,3060 +934,3068 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AMJ402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="7" customWidth="1"/>
-    <col min="3" max="1009" width="11.5" style="7"/>
-    <col min="1010" max="1024" width="11.5" style="8"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="1" customWidth="1"/>
+    <col min="3" max="1009" width="11.5" style="1"/>
+    <col min="1010" max="1024" width="11.5" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B3" s="10">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="K3" s="5" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="K3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B4" s="10">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="10">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="7">
         <v>3</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="7">
         <v>4</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="10">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="10">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="10">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="10">
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="10">
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="10">
+      <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="10">
+      <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="10">
+      <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="10">
+      <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="10">
+      <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="10">
+      <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B17" s="10">
+      <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B18" s="10">
+      <c r="B18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="7">
         <v>1</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="7">
         <v>2</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B19" s="10">
+      <c r="B19" s="4">
         <v>17</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="9">
         <v>0</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="9">
         <v>1.6E-2</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="9">
         <v>3.1E-2</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="9">
         <v>6.3E-2</v>
       </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="3" t="s">
+      <c r="K19" s="12"/>
+      <c r="L19" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B20" s="10">
+      <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="9">
         <v>0.125</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="9">
         <v>0.25</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="9">
         <v>0.5</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="9">
         <v>1</v>
       </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B21" s="10">
+      <c r="B21" s="4">
         <v>19</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="9">
         <v>2</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="9">
         <v>4</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="9">
         <v>8</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B22" s="10">
+      <c r="B22" s="4">
         <v>20</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B23" s="10">
+      <c r="B23" s="4">
         <v>21</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B24" s="10">
+      <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B25" s="10">
+      <c r="B25" s="4">
         <v>23</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B26" s="10">
+      <c r="B26" s="4">
         <v>24</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C31" s="20">
+      <c r="C31" s="14">
         <v>1</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="15">
         <v>2</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="15">
         <v>3</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="15">
         <v>4</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="15">
         <v>5</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="15">
         <v>6</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="15">
         <v>7</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="15">
         <v>8</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="15">
         <v>9</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="15">
         <v>10</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M31" s="15">
         <v>11</v>
       </c>
-      <c r="N31" s="22">
+      <c r="N31" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="24" t="str">
+      <c r="C32" s="18" t="str">
         <f t="array" ref="C32:H32">TRANSPOSE(C3:C8)</f>
         <v>Pool</v>
       </c>
-      <c r="D32" s="25" t="str">
+      <c r="D32" s="19" t="str">
         <v>H20</v>
       </c>
-      <c r="E32" s="26" t="str">
+      <c r="E32" s="20" t="str">
         <v>ATCC 22019</v>
       </c>
-      <c r="F32" s="26" t="str">
+      <c r="F32" s="20" t="str">
         <v>Cal-wt</v>
       </c>
-      <c r="G32" s="26" t="str">
+      <c r="G32" s="20" t="str">
         <v>Cg-wt1</v>
       </c>
-      <c r="H32" s="26" t="str">
+      <c r="H32" s="20" t="str">
         <v>Cg-wt2</v>
       </c>
-      <c r="I32" s="27" t="str">
+      <c r="I32" s="21" t="str">
         <f>H32</f>
         <v>Cg-wt2</v>
       </c>
-      <c r="J32" s="27" t="str">
+      <c r="J32" s="21" t="str">
         <f>G32</f>
         <v>Cg-wt1</v>
       </c>
-      <c r="K32" s="27" t="str">
+      <c r="K32" s="21" t="str">
         <f>F32</f>
         <v>Cal-wt</v>
       </c>
-      <c r="L32" s="27" t="str">
+      <c r="L32" s="21" t="str">
         <f>E32</f>
         <v>ATCC 22019</v>
       </c>
-      <c r="M32" s="25" t="str">
+      <c r="M32" s="19" t="str">
         <f>D32</f>
         <v>H20</v>
       </c>
-      <c r="N32" s="24" t="str">
+      <c r="N32" s="18" t="str">
         <f>C32</f>
         <v>Pool</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="26" t="str">
+      <c r="C33" s="20" t="str">
         <f t="array" ref="C33:H33">TRANSPOSE(C9:C14)</f>
         <v>Cp-wt1</v>
       </c>
-      <c r="D33" s="26" t="str">
+      <c r="D33" s="20" t="str">
         <v>Cp-wt2</v>
       </c>
-      <c r="E33" s="26" t="str">
+      <c r="E33" s="20" t="str">
         <v>Ct-wt</v>
       </c>
-      <c r="F33" s="26" t="str">
+      <c r="F33" s="20" t="str">
         <v>Co-wt</v>
       </c>
-      <c r="G33" s="26" t="str">
+      <c r="G33" s="20" t="str">
         <v>Cg-MDR1</v>
       </c>
-      <c r="H33" s="26" t="str">
+      <c r="H33" s="20" t="str">
         <v>Cg-MDR2</v>
       </c>
-      <c r="I33" s="27" t="str">
+      <c r="I33" s="21" t="str">
         <f>H33</f>
         <v>Cg-MDR2</v>
       </c>
-      <c r="J33" s="27" t="str">
+      <c r="J33" s="21" t="str">
         <f>G33</f>
         <v>Cg-MDR1</v>
       </c>
-      <c r="K33" s="27" t="str">
+      <c r="K33" s="21" t="str">
         <f>F33</f>
         <v>Co-wt</v>
       </c>
-      <c r="L33" s="27" t="str">
+      <c r="L33" s="21" t="str">
         <f>E33</f>
         <v>Ct-wt</v>
       </c>
-      <c r="M33" s="27" t="str">
+      <c r="M33" s="21" t="str">
         <f>D33</f>
         <v>Cp-wt2</v>
       </c>
-      <c r="N33" s="27" t="str">
+      <c r="N33" s="21" t="str">
         <f>C33</f>
         <v>Cp-wt1</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="26" t="str">
+      <c r="C34" s="20" t="str">
         <f t="array" ref="C34:H34">TRANSPOSE(C15:C20)</f>
         <v>Cp-MDR</v>
       </c>
-      <c r="D34" s="26" t="str">
+      <c r="D34" s="20" t="str">
         <v>Cal-wt</v>
       </c>
-      <c r="E34" s="26" t="str">
+      <c r="E34" s="20" t="str">
         <v>Cg-wt1</v>
       </c>
-      <c r="F34" s="26" t="str">
+      <c r="F34" s="20" t="str">
         <v>Cg-wt2</v>
       </c>
-      <c r="G34" s="26" t="str">
+      <c r="G34" s="20" t="str">
         <v>Cp-wt1</v>
       </c>
-      <c r="H34" s="26" t="str">
+      <c r="H34" s="20" t="str">
         <v>Cp-wt2</v>
       </c>
-      <c r="I34" s="27" t="str">
+      <c r="I34" s="21" t="str">
         <f>H34</f>
         <v>Cp-wt2</v>
       </c>
-      <c r="J34" s="27" t="str">
+      <c r="J34" s="21" t="str">
         <f>G34</f>
         <v>Cp-wt1</v>
       </c>
-      <c r="K34" s="27" t="str">
+      <c r="K34" s="21" t="str">
         <f>F34</f>
         <v>Cg-wt2</v>
       </c>
-      <c r="L34" s="27" t="str">
+      <c r="L34" s="21" t="str">
         <f>E34</f>
         <v>Cg-wt1</v>
       </c>
-      <c r="M34" s="27" t="str">
+      <c r="M34" s="21" t="str">
         <f>D34</f>
         <v>Cal-wt</v>
       </c>
-      <c r="N34" s="27" t="str">
+      <c r="N34" s="21" t="str">
         <f>C34</f>
         <v>Cp-MDR</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="26" t="str">
+      <c r="C35" s="20" t="str">
         <f t="array" ref="C35:H35">TRANSPOSE(C21:C26)</f>
         <v>Ct-wt</v>
       </c>
-      <c r="D35" s="26" t="str">
+      <c r="D35" s="20" t="str">
         <v>Co-wt</v>
       </c>
-      <c r="E35" s="26" t="str">
+      <c r="E35" s="20" t="str">
         <v>Cg-MDR1</v>
       </c>
-      <c r="F35" s="26" t="str">
+      <c r="F35" s="20" t="str">
         <v>Cg-MDR2</v>
       </c>
-      <c r="G35" s="26" t="str">
+      <c r="G35" s="20" t="str">
         <v>Cp-MDR</v>
       </c>
-      <c r="H35" s="24" t="str">
+      <c r="H35" s="18" t="str">
         <v>Pool</v>
       </c>
-      <c r="I35" s="24" t="str">
+      <c r="I35" s="18" t="str">
         <f>H35</f>
         <v>Pool</v>
       </c>
-      <c r="J35" s="27" t="str">
+      <c r="J35" s="21" t="str">
         <f>G35</f>
         <v>Cp-MDR</v>
       </c>
-      <c r="K35" s="27" t="str">
+      <c r="K35" s="21" t="str">
         <f>F35</f>
         <v>Cg-MDR2</v>
       </c>
-      <c r="L35" s="27" t="str">
+      <c r="L35" s="21" t="str">
         <f>E35</f>
         <v>Cg-MDR1</v>
       </c>
-      <c r="M35" s="27" t="str">
+      <c r="M35" s="21" t="str">
         <f>D35</f>
         <v>Co-wt</v>
       </c>
-      <c r="N35" s="27" t="str">
+      <c r="N35" s="21" t="str">
         <f>C35</f>
         <v>Ct-wt</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="27" t="str">
+      <c r="C36" s="21" t="str">
         <f t="shared" ref="C36:H39" si="0">I32</f>
         <v>Cg-wt2</v>
       </c>
-      <c r="D36" s="27" t="str">
+      <c r="D36" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cg-wt1</v>
       </c>
-      <c r="E36" s="27" t="str">
+      <c r="E36" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cal-wt</v>
       </c>
-      <c r="F36" s="27" t="str">
+      <c r="F36" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ATCC 22019</v>
       </c>
-      <c r="G36" s="25" t="str">
+      <c r="G36" s="19" t="str">
         <f t="shared" si="0"/>
         <v>H20</v>
       </c>
-      <c r="H36" s="24" t="str">
+      <c r="H36" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Pool</v>
       </c>
-      <c r="I36" s="24" t="str">
+      <c r="I36" s="18" t="str">
         <f t="shared" ref="I36:N39" si="1">C32</f>
         <v>Pool</v>
       </c>
-      <c r="J36" s="25" t="str">
+      <c r="J36" s="19" t="str">
         <f t="shared" si="1"/>
         <v>H20</v>
       </c>
-      <c r="K36" s="26" t="str">
+      <c r="K36" s="20" t="str">
         <f t="shared" si="1"/>
         <v>ATCC 22019</v>
       </c>
-      <c r="L36" s="26" t="str">
+      <c r="L36" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cal-wt</v>
       </c>
-      <c r="M36" s="26" t="str">
+      <c r="M36" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cg-wt1</v>
       </c>
-      <c r="N36" s="26" t="str">
+      <c r="N36" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cg-wt2</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="27" t="str">
+      <c r="C37" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cg-MDR2</v>
       </c>
-      <c r="D37" s="27" t="str">
+      <c r="D37" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cg-MDR1</v>
       </c>
-      <c r="E37" s="27" t="str">
+      <c r="E37" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Co-wt</v>
       </c>
-      <c r="F37" s="27" t="str">
+      <c r="F37" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Ct-wt</v>
       </c>
-      <c r="G37" s="27" t="str">
+      <c r="G37" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cp-wt2</v>
       </c>
-      <c r="H37" s="27" t="str">
+      <c r="H37" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cp-wt1</v>
       </c>
-      <c r="I37" s="26" t="str">
+      <c r="I37" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cp-wt1</v>
       </c>
-      <c r="J37" s="26" t="str">
+      <c r="J37" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cp-wt2</v>
       </c>
-      <c r="K37" s="26" t="str">
+      <c r="K37" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Ct-wt</v>
       </c>
-      <c r="L37" s="26" t="str">
+      <c r="L37" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Co-wt</v>
       </c>
-      <c r="M37" s="26" t="str">
+      <c r="M37" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cg-MDR1</v>
       </c>
-      <c r="N37" s="26" t="str">
+      <c r="N37" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cg-MDR2</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="27" t="str">
+      <c r="C38" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cp-wt2</v>
       </c>
-      <c r="D38" s="27" t="str">
+      <c r="D38" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cp-wt1</v>
       </c>
-      <c r="E38" s="27" t="str">
+      <c r="E38" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cg-wt2</v>
       </c>
-      <c r="F38" s="27" t="str">
+      <c r="F38" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cg-wt1</v>
       </c>
-      <c r="G38" s="27" t="str">
+      <c r="G38" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cal-wt</v>
       </c>
-      <c r="H38" s="27" t="str">
+      <c r="H38" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cp-MDR</v>
       </c>
-      <c r="I38" s="26" t="str">
+      <c r="I38" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cp-MDR</v>
       </c>
-      <c r="J38" s="26" t="str">
+      <c r="J38" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cal-wt</v>
       </c>
-      <c r="K38" s="26" t="str">
+      <c r="K38" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cg-wt1</v>
       </c>
-      <c r="L38" s="26" t="str">
+      <c r="L38" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cg-wt2</v>
       </c>
-      <c r="M38" s="26" t="str">
+      <c r="M38" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cp-wt1</v>
       </c>
-      <c r="N38" s="26" t="str">
+      <c r="N38" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cp-wt2</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="24" t="str">
+      <c r="C39" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Pool</v>
       </c>
-      <c r="D39" s="27" t="str">
+      <c r="D39" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cp-MDR</v>
       </c>
-      <c r="E39" s="27" t="str">
+      <c r="E39" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cg-MDR2</v>
       </c>
-      <c r="F39" s="27" t="str">
+      <c r="F39" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cg-MDR1</v>
       </c>
-      <c r="G39" s="27" t="str">
+      <c r="G39" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Co-wt</v>
       </c>
-      <c r="H39" s="27" t="str">
+      <c r="H39" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Ct-wt</v>
       </c>
-      <c r="I39" s="26" t="str">
+      <c r="I39" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Ct-wt</v>
       </c>
-      <c r="J39" s="26" t="str">
+      <c r="J39" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Co-wt</v>
       </c>
-      <c r="K39" s="26" t="str">
+      <c r="K39" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cg-MDR1</v>
       </c>
-      <c r="L39" s="26" t="str">
+      <c r="L39" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cg-MDR2</v>
       </c>
-      <c r="M39" s="26" t="str">
+      <c r="M39" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cp-MDR</v>
       </c>
-      <c r="N39" s="24" t="str">
+      <c r="N39" s="18" t="str">
         <f t="shared" si="1"/>
         <v>Pool</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
     </row>
     <row r="49" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="F49" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="28" t="s">
+      <c r="G49" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="28" t="s">
+      <c r="H49" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="50" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="9">
         <v>2</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="9">
         <v>1</v>
       </c>
-      <c r="J50" s="29"/>
-      <c r="K50" s="1" t="s">
+      <c r="J50" s="23"/>
+      <c r="K50" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
     </row>
     <row r="51" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
+      <c r="E51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="9">
+        <v>1</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
     </row>
     <row r="64" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
     </row>
     <row r="65" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
     </row>
     <row r="66" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
     </row>
     <row r="67" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
     </row>
     <row r="68" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
     </row>
     <row r="69" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
     </row>
     <row r="70" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
     </row>
     <row r="71" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
     </row>
     <row r="72" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
     </row>
     <row r="73" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
     </row>
     <row r="74" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
     </row>
     <row r="75" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
     </row>
     <row r="76" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
     </row>
     <row r="77" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
     </row>
     <row r="78" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
     </row>
     <row r="79" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
     </row>
     <row r="80" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
     </row>
     <row r="81" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
     </row>
     <row r="82" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
     </row>
     <row r="83" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
     </row>
     <row r="84" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
     </row>
     <row r="85" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
     </row>
     <row r="86" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
     </row>
     <row r="87" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
     </row>
     <row r="88" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
     </row>
     <row r="89" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
     </row>
     <row r="90" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
     </row>
     <row r="91" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
     </row>
     <row r="92" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
     </row>
     <row r="93" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
     </row>
     <row r="94" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
     </row>
     <row r="95" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
     </row>
     <row r="96" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
     </row>
     <row r="97" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
     </row>
     <row r="98" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
     </row>
     <row r="99" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
     </row>
     <row r="100" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
     </row>
     <row r="101" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
     </row>
     <row r="102" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
     </row>
     <row r="103" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
     </row>
     <row r="104" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
     </row>
     <row r="105" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
     </row>
     <row r="106" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
     </row>
     <row r="107" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
     </row>
     <row r="108" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
     </row>
     <row r="109" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
     </row>
     <row r="110" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
     </row>
     <row r="111" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
     </row>
     <row r="112" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
     </row>
     <row r="113" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
     </row>
     <row r="114" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
     </row>
     <row r="115" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
     </row>
     <row r="116" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
     </row>
     <row r="117" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
     </row>
     <row r="118" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
     </row>
     <row r="119" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
     </row>
     <row r="120" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
     </row>
     <row r="121" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
     </row>
     <row r="122" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
     </row>
     <row r="123" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
     </row>
     <row r="124" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
     </row>
     <row r="125" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
     </row>
     <row r="126" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
     </row>
     <row r="127" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
     </row>
     <row r="128" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
     </row>
     <row r="129" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
     </row>
     <row r="130" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
     </row>
     <row r="131" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
     </row>
     <row r="132" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
     </row>
     <row r="133" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
     </row>
     <row r="134" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
     </row>
     <row r="135" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
     </row>
     <row r="136" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
     </row>
     <row r="137" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
     </row>
     <row r="138" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
     </row>
     <row r="139" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
     </row>
     <row r="140" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
     </row>
     <row r="141" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
     </row>
     <row r="142" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E142" s="15"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="15"/>
-      <c r="H142" s="15"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
     </row>
     <row r="143" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E143" s="15"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
     </row>
     <row r="144" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
     </row>
     <row r="145" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E145" s="15"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
     </row>
     <row r="146" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
     </row>
     <row r="147" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
     </row>
     <row r="148" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
     </row>
     <row r="149" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
     </row>
     <row r="150" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="15"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
     </row>
     <row r="151" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="15"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
     </row>
     <row r="152" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
     </row>
     <row r="153" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
     </row>
     <row r="154" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="15"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
     </row>
     <row r="155" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E155" s="15"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="15"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
     </row>
     <row r="156" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="15"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
     </row>
     <row r="157" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="15"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
     </row>
     <row r="158" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="15"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
     </row>
     <row r="159" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E159" s="15"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="15"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
     </row>
     <row r="160" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="15"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
     </row>
     <row r="161" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E161" s="15"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="15"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
     </row>
     <row r="162" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E162" s="15"/>
-      <c r="F162" s="15"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="15"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
     </row>
     <row r="163" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E163" s="15"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="15"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
     </row>
     <row r="164" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E164" s="15"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="15"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
     </row>
     <row r="165" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E165" s="15"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="15"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
     </row>
     <row r="166" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E166" s="15"/>
-      <c r="F166" s="15"/>
-      <c r="G166" s="15"/>
-      <c r="H166" s="15"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
     </row>
     <row r="167" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="15"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
     </row>
     <row r="168" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E168" s="15"/>
-      <c r="F168" s="15"/>
-      <c r="G168" s="15"/>
-      <c r="H168" s="15"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
     </row>
     <row r="169" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E169" s="15"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="15"/>
-      <c r="H169" s="15"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
     </row>
     <row r="170" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E170" s="15"/>
-      <c r="F170" s="15"/>
-      <c r="G170" s="15"/>
-      <c r="H170" s="15"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
     </row>
     <row r="171" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E171" s="15"/>
-      <c r="F171" s="15"/>
-      <c r="G171" s="15"/>
-      <c r="H171" s="15"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
     </row>
     <row r="172" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E172" s="15"/>
-      <c r="F172" s="15"/>
-      <c r="G172" s="15"/>
-      <c r="H172" s="15"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
     </row>
     <row r="173" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E173" s="15"/>
-      <c r="F173" s="15"/>
-      <c r="G173" s="15"/>
-      <c r="H173" s="15"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
     </row>
     <row r="174" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E174" s="15"/>
-      <c r="F174" s="15"/>
-      <c r="G174" s="15"/>
-      <c r="H174" s="15"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
     </row>
     <row r="175" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E175" s="15"/>
-      <c r="F175" s="15"/>
-      <c r="G175" s="15"/>
-      <c r="H175" s="15"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
     </row>
     <row r="176" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E176" s="15"/>
-      <c r="F176" s="15"/>
-      <c r="G176" s="15"/>
-      <c r="H176" s="15"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
     </row>
     <row r="177" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E177" s="15"/>
-      <c r="F177" s="15"/>
-      <c r="G177" s="15"/>
-      <c r="H177" s="15"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
     </row>
     <row r="178" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E178" s="15"/>
-      <c r="F178" s="15"/>
-      <c r="G178" s="15"/>
-      <c r="H178" s="15"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
     </row>
     <row r="179" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E179" s="15"/>
-      <c r="F179" s="15"/>
-      <c r="G179" s="15"/>
-      <c r="H179" s="15"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
     </row>
     <row r="180" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E180" s="15"/>
-      <c r="F180" s="15"/>
-      <c r="G180" s="15"/>
-      <c r="H180" s="15"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
     </row>
     <row r="181" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E181" s="15"/>
-      <c r="F181" s="15"/>
-      <c r="G181" s="15"/>
-      <c r="H181" s="15"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
     </row>
     <row r="182" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E182" s="15"/>
-      <c r="F182" s="15"/>
-      <c r="G182" s="15"/>
-      <c r="H182" s="15"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
     </row>
     <row r="183" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E183" s="15"/>
-      <c r="F183" s="15"/>
-      <c r="G183" s="15"/>
-      <c r="H183" s="15"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
     </row>
     <row r="184" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E184" s="15"/>
-      <c r="F184" s="15"/>
-      <c r="G184" s="15"/>
-      <c r="H184" s="15"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
     </row>
     <row r="185" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E185" s="15"/>
-      <c r="F185" s="15"/>
-      <c r="G185" s="15"/>
-      <c r="H185" s="15"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="9"/>
     </row>
     <row r="186" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E186" s="15"/>
-      <c r="F186" s="15"/>
-      <c r="G186" s="15"/>
-      <c r="H186" s="15"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="9"/>
     </row>
     <row r="187" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E187" s="15"/>
-      <c r="F187" s="15"/>
-      <c r="G187" s="15"/>
-      <c r="H187" s="15"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
     </row>
     <row r="188" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E188" s="15"/>
-      <c r="F188" s="15"/>
-      <c r="G188" s="15"/>
-      <c r="H188" s="15"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
     </row>
     <row r="189" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E189" s="15"/>
-      <c r="F189" s="15"/>
-      <c r="G189" s="15"/>
-      <c r="H189" s="15"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="9"/>
     </row>
     <row r="190" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E190" s="15"/>
-      <c r="F190" s="15"/>
-      <c r="G190" s="15"/>
-      <c r="H190" s="15"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
     </row>
     <row r="191" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E191" s="15"/>
-      <c r="F191" s="15"/>
-      <c r="G191" s="15"/>
-      <c r="H191" s="15"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="9"/>
     </row>
     <row r="192" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E192" s="15"/>
-      <c r="F192" s="15"/>
-      <c r="G192" s="15"/>
-      <c r="H192" s="15"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="9"/>
     </row>
     <row r="193" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E193" s="15"/>
-      <c r="F193" s="15"/>
-      <c r="G193" s="15"/>
-      <c r="H193" s="15"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="9"/>
     </row>
     <row r="194" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E194" s="15"/>
-      <c r="F194" s="15"/>
-      <c r="G194" s="15"/>
-      <c r="H194" s="15"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="9"/>
     </row>
     <row r="195" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E195" s="15"/>
-      <c r="F195" s="15"/>
-      <c r="G195" s="15"/>
-      <c r="H195" s="15"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="9"/>
     </row>
     <row r="196" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E196" s="15"/>
-      <c r="F196" s="15"/>
-      <c r="G196" s="15"/>
-      <c r="H196" s="15"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="9"/>
     </row>
     <row r="197" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E197" s="15"/>
-      <c r="F197" s="15"/>
-      <c r="G197" s="15"/>
-      <c r="H197" s="15"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="9"/>
     </row>
     <row r="198" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E198" s="15"/>
-      <c r="F198" s="15"/>
-      <c r="G198" s="15"/>
-      <c r="H198" s="15"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="9"/>
     </row>
     <row r="199" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E199" s="15"/>
-      <c r="F199" s="15"/>
-      <c r="G199" s="15"/>
-      <c r="H199" s="15"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+      <c r="H199" s="9"/>
     </row>
     <row r="200" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E200" s="15"/>
-      <c r="F200" s="15"/>
-      <c r="G200" s="15"/>
-      <c r="H200" s="15"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="9"/>
     </row>
     <row r="201" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E201" s="15"/>
-      <c r="F201" s="15"/>
-      <c r="G201" s="15"/>
-      <c r="H201" s="15"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="9"/>
+      <c r="H201" s="9"/>
     </row>
     <row r="202" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E202" s="15"/>
-      <c r="F202" s="15"/>
-      <c r="G202" s="15"/>
-      <c r="H202" s="15"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="9"/>
+      <c r="G202" s="9"/>
+      <c r="H202" s="9"/>
     </row>
     <row r="203" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E203" s="15"/>
-      <c r="F203" s="15"/>
-      <c r="G203" s="15"/>
-      <c r="H203" s="15"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="9"/>
+      <c r="H203" s="9"/>
     </row>
     <row r="204" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E204" s="15"/>
-      <c r="F204" s="15"/>
-      <c r="G204" s="15"/>
-      <c r="H204" s="15"/>
+      <c r="E204" s="9"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="9"/>
     </row>
     <row r="205" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E205" s="15"/>
-      <c r="F205" s="15"/>
-      <c r="G205" s="15"/>
-      <c r="H205" s="15"/>
+      <c r="E205" s="9"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="9"/>
+      <c r="H205" s="9"/>
     </row>
     <row r="206" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E206" s="15"/>
-      <c r="F206" s="15"/>
-      <c r="G206" s="15"/>
-      <c r="H206" s="15"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="9"/>
+      <c r="H206" s="9"/>
     </row>
     <row r="207" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E207" s="15"/>
-      <c r="F207" s="15"/>
-      <c r="G207" s="15"/>
-      <c r="H207" s="15"/>
+      <c r="E207" s="9"/>
+      <c r="F207" s="9"/>
+      <c r="G207" s="9"/>
+      <c r="H207" s="9"/>
     </row>
     <row r="208" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E208" s="15"/>
-      <c r="F208" s="15"/>
-      <c r="G208" s="15"/>
-      <c r="H208" s="15"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="9"/>
     </row>
     <row r="209" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E209" s="15"/>
-      <c r="F209" s="15"/>
-      <c r="G209" s="15"/>
-      <c r="H209" s="15"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="9"/>
+      <c r="G209" s="9"/>
+      <c r="H209" s="9"/>
     </row>
     <row r="210" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E210" s="15"/>
-      <c r="F210" s="15"/>
-      <c r="G210" s="15"/>
-      <c r="H210" s="15"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="9"/>
+      <c r="G210" s="9"/>
+      <c r="H210" s="9"/>
     </row>
     <row r="211" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E211" s="15"/>
-      <c r="F211" s="15"/>
-      <c r="G211" s="15"/>
-      <c r="H211" s="15"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="9"/>
+      <c r="G211" s="9"/>
+      <c r="H211" s="9"/>
     </row>
     <row r="212" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E212" s="15"/>
-      <c r="F212" s="15"/>
-      <c r="G212" s="15"/>
-      <c r="H212" s="15"/>
+      <c r="E212" s="9"/>
+      <c r="F212" s="9"/>
+      <c r="G212" s="9"/>
+      <c r="H212" s="9"/>
     </row>
     <row r="213" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E213" s="15"/>
-      <c r="F213" s="15"/>
-      <c r="G213" s="15"/>
-      <c r="H213" s="15"/>
+      <c r="E213" s="9"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="9"/>
+      <c r="H213" s="9"/>
     </row>
     <row r="214" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E214" s="15"/>
-      <c r="F214" s="15"/>
-      <c r="G214" s="15"/>
-      <c r="H214" s="15"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="9"/>
     </row>
     <row r="215" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E215" s="15"/>
-      <c r="F215" s="15"/>
-      <c r="G215" s="15"/>
-      <c r="H215" s="15"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="9"/>
     </row>
     <row r="216" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E216" s="15"/>
-      <c r="F216" s="15"/>
-      <c r="G216" s="15"/>
-      <c r="H216" s="15"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="9"/>
     </row>
     <row r="217" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E217" s="15"/>
-      <c r="F217" s="15"/>
-      <c r="G217" s="15"/>
-      <c r="H217" s="15"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="9"/>
+      <c r="G217" s="9"/>
+      <c r="H217" s="9"/>
     </row>
     <row r="218" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E218" s="15"/>
-      <c r="F218" s="15"/>
-      <c r="G218" s="15"/>
-      <c r="H218" s="15"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="9"/>
     </row>
     <row r="219" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E219" s="15"/>
-      <c r="F219" s="15"/>
-      <c r="G219" s="15"/>
-      <c r="H219" s="15"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="9"/>
+      <c r="G219" s="9"/>
+      <c r="H219" s="9"/>
     </row>
     <row r="220" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E220" s="15"/>
-      <c r="F220" s="15"/>
-      <c r="G220" s="15"/>
-      <c r="H220" s="15"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="9"/>
+      <c r="G220" s="9"/>
+      <c r="H220" s="9"/>
     </row>
     <row r="221" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E221" s="15"/>
-      <c r="F221" s="15"/>
-      <c r="G221" s="15"/>
-      <c r="H221" s="15"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="9"/>
     </row>
     <row r="222" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E222" s="15"/>
-      <c r="F222" s="15"/>
-      <c r="G222" s="15"/>
-      <c r="H222" s="15"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="9"/>
+      <c r="G222" s="9"/>
+      <c r="H222" s="9"/>
     </row>
     <row r="223" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E223" s="15"/>
-      <c r="F223" s="15"/>
-      <c r="G223" s="15"/>
-      <c r="H223" s="15"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="9"/>
+      <c r="G223" s="9"/>
+      <c r="H223" s="9"/>
     </row>
     <row r="224" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E224" s="15"/>
-      <c r="F224" s="15"/>
-      <c r="G224" s="15"/>
-      <c r="H224" s="15"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="9"/>
+      <c r="G224" s="9"/>
+      <c r="H224" s="9"/>
     </row>
     <row r="225" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E225" s="15"/>
-      <c r="F225" s="15"/>
-      <c r="G225" s="15"/>
-      <c r="H225" s="15"/>
+      <c r="E225" s="9"/>
+      <c r="F225" s="9"/>
+      <c r="G225" s="9"/>
+      <c r="H225" s="9"/>
     </row>
     <row r="226" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E226" s="15"/>
-      <c r="F226" s="15"/>
-      <c r="G226" s="15"/>
-      <c r="H226" s="15"/>
+      <c r="E226" s="9"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="9"/>
+      <c r="H226" s="9"/>
     </row>
     <row r="227" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E227" s="15"/>
-      <c r="F227" s="15"/>
-      <c r="G227" s="15"/>
-      <c r="H227" s="15"/>
+      <c r="E227" s="9"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="9"/>
+      <c r="H227" s="9"/>
     </row>
     <row r="228" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E228" s="15"/>
-      <c r="F228" s="15"/>
-      <c r="G228" s="15"/>
-      <c r="H228" s="15"/>
+      <c r="E228" s="9"/>
+      <c r="F228" s="9"/>
+      <c r="G228" s="9"/>
+      <c r="H228" s="9"/>
     </row>
     <row r="229" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E229" s="15"/>
-      <c r="F229" s="15"/>
-      <c r="G229" s="15"/>
-      <c r="H229" s="15"/>
+      <c r="E229" s="9"/>
+      <c r="F229" s="9"/>
+      <c r="G229" s="9"/>
+      <c r="H229" s="9"/>
     </row>
     <row r="230" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E230" s="15"/>
-      <c r="F230" s="15"/>
-      <c r="G230" s="15"/>
-      <c r="H230" s="15"/>
+      <c r="E230" s="9"/>
+      <c r="F230" s="9"/>
+      <c r="G230" s="9"/>
+      <c r="H230" s="9"/>
     </row>
     <row r="231" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E231" s="15"/>
-      <c r="F231" s="15"/>
-      <c r="G231" s="15"/>
-      <c r="H231" s="15"/>
+      <c r="E231" s="9"/>
+      <c r="F231" s="9"/>
+      <c r="G231" s="9"/>
+      <c r="H231" s="9"/>
     </row>
     <row r="232" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E232" s="15"/>
-      <c r="F232" s="15"/>
-      <c r="G232" s="15"/>
-      <c r="H232" s="15"/>
+      <c r="E232" s="9"/>
+      <c r="F232" s="9"/>
+      <c r="G232" s="9"/>
+      <c r="H232" s="9"/>
     </row>
     <row r="233" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E233" s="15"/>
-      <c r="F233" s="15"/>
-      <c r="G233" s="15"/>
-      <c r="H233" s="15"/>
+      <c r="E233" s="9"/>
+      <c r="F233" s="9"/>
+      <c r="G233" s="9"/>
+      <c r="H233" s="9"/>
     </row>
     <row r="234" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E234" s="15"/>
-      <c r="F234" s="15"/>
-      <c r="G234" s="15"/>
-      <c r="H234" s="15"/>
+      <c r="E234" s="9"/>
+      <c r="F234" s="9"/>
+      <c r="G234" s="9"/>
+      <c r="H234" s="9"/>
     </row>
     <row r="235" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E235" s="15"/>
-      <c r="F235" s="15"/>
-      <c r="G235" s="15"/>
-      <c r="H235" s="15"/>
+      <c r="E235" s="9"/>
+      <c r="F235" s="9"/>
+      <c r="G235" s="9"/>
+      <c r="H235" s="9"/>
     </row>
     <row r="236" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E236" s="15"/>
-      <c r="F236" s="15"/>
-      <c r="G236" s="15"/>
-      <c r="H236" s="15"/>
+      <c r="E236" s="9"/>
+      <c r="F236" s="9"/>
+      <c r="G236" s="9"/>
+      <c r="H236" s="9"/>
     </row>
     <row r="237" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E237" s="15"/>
-      <c r="F237" s="15"/>
-      <c r="G237" s="15"/>
-      <c r="H237" s="15"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9"/>
+      <c r="H237" s="9"/>
     </row>
     <row r="238" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E238" s="15"/>
-      <c r="F238" s="15"/>
-      <c r="G238" s="15"/>
-      <c r="H238" s="15"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="9"/>
     </row>
     <row r="239" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E239" s="15"/>
-      <c r="F239" s="15"/>
-      <c r="G239" s="15"/>
-      <c r="H239" s="15"/>
+      <c r="E239" s="9"/>
+      <c r="F239" s="9"/>
+      <c r="G239" s="9"/>
+      <c r="H239" s="9"/>
     </row>
     <row r="240" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E240" s="15"/>
-      <c r="F240" s="15"/>
-      <c r="G240" s="15"/>
-      <c r="H240" s="15"/>
+      <c r="E240" s="9"/>
+      <c r="F240" s="9"/>
+      <c r="G240" s="9"/>
+      <c r="H240" s="9"/>
     </row>
     <row r="241" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E241" s="15"/>
-      <c r="F241" s="15"/>
-      <c r="G241" s="15"/>
-      <c r="H241" s="15"/>
+      <c r="E241" s="9"/>
+      <c r="F241" s="9"/>
+      <c r="G241" s="9"/>
+      <c r="H241" s="9"/>
     </row>
     <row r="242" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E242" s="15"/>
-      <c r="F242" s="15"/>
-      <c r="G242" s="15"/>
-      <c r="H242" s="15"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="9"/>
+      <c r="G242" s="9"/>
+      <c r="H242" s="9"/>
     </row>
     <row r="243" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E243" s="15"/>
-      <c r="F243" s="15"/>
-      <c r="G243" s="15"/>
-      <c r="H243" s="15"/>
+      <c r="E243" s="9"/>
+      <c r="F243" s="9"/>
+      <c r="G243" s="9"/>
+      <c r="H243" s="9"/>
     </row>
     <row r="244" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E244" s="15"/>
-      <c r="F244" s="15"/>
-      <c r="G244" s="15"/>
-      <c r="H244" s="15"/>
+      <c r="E244" s="9"/>
+      <c r="F244" s="9"/>
+      <c r="G244" s="9"/>
+      <c r="H244" s="9"/>
     </row>
     <row r="245" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E245" s="15"/>
-      <c r="F245" s="15"/>
-      <c r="G245" s="15"/>
-      <c r="H245" s="15"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="9"/>
+      <c r="G245" s="9"/>
+      <c r="H245" s="9"/>
     </row>
     <row r="246" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E246" s="15"/>
-      <c r="F246" s="15"/>
-      <c r="G246" s="15"/>
-      <c r="H246" s="15"/>
+      <c r="E246" s="9"/>
+      <c r="F246" s="9"/>
+      <c r="G246" s="9"/>
+      <c r="H246" s="9"/>
     </row>
     <row r="247" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E247" s="15"/>
-      <c r="F247" s="15"/>
-      <c r="G247" s="15"/>
-      <c r="H247" s="15"/>
+      <c r="E247" s="9"/>
+      <c r="F247" s="9"/>
+      <c r="G247" s="9"/>
+      <c r="H247" s="9"/>
     </row>
     <row r="248" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E248" s="15"/>
-      <c r="F248" s="15"/>
-      <c r="G248" s="15"/>
-      <c r="H248" s="15"/>
+      <c r="E248" s="9"/>
+      <c r="F248" s="9"/>
+      <c r="G248" s="9"/>
+      <c r="H248" s="9"/>
     </row>
     <row r="249" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E249" s="15"/>
-      <c r="F249" s="15"/>
-      <c r="G249" s="15"/>
-      <c r="H249" s="15"/>
+      <c r="E249" s="9"/>
+      <c r="F249" s="9"/>
+      <c r="G249" s="9"/>
+      <c r="H249" s="9"/>
     </row>
     <row r="250" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E250" s="15"/>
-      <c r="F250" s="15"/>
-      <c r="G250" s="15"/>
-      <c r="H250" s="15"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="9"/>
+      <c r="G250" s="9"/>
+      <c r="H250" s="9"/>
     </row>
     <row r="251" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E251" s="15"/>
-      <c r="F251" s="15"/>
-      <c r="G251" s="15"/>
-      <c r="H251" s="15"/>
+      <c r="E251" s="9"/>
+      <c r="F251" s="9"/>
+      <c r="G251" s="9"/>
+      <c r="H251" s="9"/>
     </row>
     <row r="252" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E252" s="15"/>
-      <c r="F252" s="15"/>
-      <c r="G252" s="15"/>
-      <c r="H252" s="15"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="9"/>
+      <c r="G252" s="9"/>
+      <c r="H252" s="9"/>
     </row>
     <row r="253" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E253" s="15"/>
-      <c r="F253" s="15"/>
-      <c r="G253" s="15"/>
-      <c r="H253" s="15"/>
+      <c r="E253" s="9"/>
+      <c r="F253" s="9"/>
+      <c r="G253" s="9"/>
+      <c r="H253" s="9"/>
     </row>
     <row r="254" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E254" s="15"/>
-      <c r="F254" s="15"/>
-      <c r="G254" s="15"/>
-      <c r="H254" s="15"/>
+      <c r="E254" s="9"/>
+      <c r="F254" s="9"/>
+      <c r="G254" s="9"/>
+      <c r="H254" s="9"/>
     </row>
     <row r="255" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E255" s="15"/>
-      <c r="F255" s="15"/>
-      <c r="G255" s="15"/>
-      <c r="H255" s="15"/>
+      <c r="E255" s="9"/>
+      <c r="F255" s="9"/>
+      <c r="G255" s="9"/>
+      <c r="H255" s="9"/>
     </row>
     <row r="256" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E256" s="15"/>
-      <c r="F256" s="15"/>
-      <c r="G256" s="15"/>
-      <c r="H256" s="15"/>
+      <c r="E256" s="9"/>
+      <c r="F256" s="9"/>
+      <c r="G256" s="9"/>
+      <c r="H256" s="9"/>
     </row>
     <row r="257" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E257" s="15"/>
-      <c r="F257" s="15"/>
-      <c r="G257" s="15"/>
-      <c r="H257" s="15"/>
+      <c r="E257" s="9"/>
+      <c r="F257" s="9"/>
+      <c r="G257" s="9"/>
+      <c r="H257" s="9"/>
     </row>
     <row r="258" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E258" s="15"/>
-      <c r="F258" s="15"/>
-      <c r="G258" s="15"/>
-      <c r="H258" s="15"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="9"/>
+      <c r="G258" s="9"/>
+      <c r="H258" s="9"/>
     </row>
     <row r="259" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E259" s="15"/>
-      <c r="F259" s="15"/>
-      <c r="G259" s="15"/>
-      <c r="H259" s="15"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="9"/>
+      <c r="G259" s="9"/>
+      <c r="H259" s="9"/>
     </row>
     <row r="260" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E260" s="15"/>
-      <c r="F260" s="15"/>
-      <c r="G260" s="15"/>
-      <c r="H260" s="15"/>
+      <c r="E260" s="9"/>
+      <c r="F260" s="9"/>
+      <c r="G260" s="9"/>
+      <c r="H260" s="9"/>
     </row>
     <row r="261" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E261" s="15"/>
-      <c r="F261" s="15"/>
-      <c r="G261" s="15"/>
-      <c r="H261" s="15"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="9"/>
+      <c r="G261" s="9"/>
+      <c r="H261" s="9"/>
     </row>
     <row r="262" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E262" s="15"/>
-      <c r="F262" s="15"/>
-      <c r="G262" s="15"/>
-      <c r="H262" s="15"/>
+      <c r="E262" s="9"/>
+      <c r="F262" s="9"/>
+      <c r="G262" s="9"/>
+      <c r="H262" s="9"/>
     </row>
     <row r="263" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E263" s="15"/>
-      <c r="F263" s="15"/>
-      <c r="G263" s="15"/>
-      <c r="H263" s="15"/>
+      <c r="E263" s="9"/>
+      <c r="F263" s="9"/>
+      <c r="G263" s="9"/>
+      <c r="H263" s="9"/>
     </row>
     <row r="264" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E264" s="15"/>
-      <c r="F264" s="15"/>
-      <c r="G264" s="15"/>
-      <c r="H264" s="15"/>
+      <c r="E264" s="9"/>
+      <c r="F264" s="9"/>
+      <c r="G264" s="9"/>
+      <c r="H264" s="9"/>
     </row>
     <row r="265" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E265" s="15"/>
-      <c r="F265" s="15"/>
-      <c r="G265" s="15"/>
-      <c r="H265" s="15"/>
+      <c r="E265" s="9"/>
+      <c r="F265" s="9"/>
+      <c r="G265" s="9"/>
+      <c r="H265" s="9"/>
     </row>
     <row r="266" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E266" s="15"/>
-      <c r="F266" s="15"/>
-      <c r="G266" s="15"/>
-      <c r="H266" s="15"/>
+      <c r="E266" s="9"/>
+      <c r="F266" s="9"/>
+      <c r="G266" s="9"/>
+      <c r="H266" s="9"/>
     </row>
     <row r="267" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E267" s="15"/>
-      <c r="F267" s="15"/>
-      <c r="G267" s="15"/>
-      <c r="H267" s="15"/>
+      <c r="E267" s="9"/>
+      <c r="F267" s="9"/>
+      <c r="G267" s="9"/>
+      <c r="H267" s="9"/>
     </row>
     <row r="268" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E268" s="15"/>
-      <c r="F268" s="15"/>
-      <c r="G268" s="15"/>
-      <c r="H268" s="15"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="9"/>
+      <c r="G268" s="9"/>
+      <c r="H268" s="9"/>
     </row>
     <row r="269" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E269" s="15"/>
-      <c r="F269" s="15"/>
-      <c r="G269" s="15"/>
-      <c r="H269" s="15"/>
+      <c r="E269" s="9"/>
+      <c r="F269" s="9"/>
+      <c r="G269" s="9"/>
+      <c r="H269" s="9"/>
     </row>
     <row r="270" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E270" s="15"/>
-      <c r="F270" s="15"/>
-      <c r="G270" s="15"/>
-      <c r="H270" s="15"/>
+      <c r="E270" s="9"/>
+      <c r="F270" s="9"/>
+      <c r="G270" s="9"/>
+      <c r="H270" s="9"/>
     </row>
     <row r="271" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E271" s="15"/>
-      <c r="F271" s="15"/>
-      <c r="G271" s="15"/>
-      <c r="H271" s="15"/>
+      <c r="E271" s="9"/>
+      <c r="F271" s="9"/>
+      <c r="G271" s="9"/>
+      <c r="H271" s="9"/>
     </row>
     <row r="272" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E272" s="15"/>
-      <c r="F272" s="15"/>
-      <c r="G272" s="15"/>
-      <c r="H272" s="15"/>
+      <c r="E272" s="9"/>
+      <c r="F272" s="9"/>
+      <c r="G272" s="9"/>
+      <c r="H272" s="9"/>
     </row>
     <row r="273" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E273" s="15"/>
-      <c r="F273" s="15"/>
-      <c r="G273" s="15"/>
-      <c r="H273" s="15"/>
+      <c r="E273" s="9"/>
+      <c r="F273" s="9"/>
+      <c r="G273" s="9"/>
+      <c r="H273" s="9"/>
     </row>
     <row r="274" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E274" s="15"/>
-      <c r="F274" s="15"/>
-      <c r="G274" s="15"/>
-      <c r="H274" s="15"/>
+      <c r="E274" s="9"/>
+      <c r="F274" s="9"/>
+      <c r="G274" s="9"/>
+      <c r="H274" s="9"/>
     </row>
     <row r="275" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E275" s="15"/>
-      <c r="F275" s="15"/>
-      <c r="G275" s="15"/>
-      <c r="H275" s="15"/>
+      <c r="E275" s="9"/>
+      <c r="F275" s="9"/>
+      <c r="G275" s="9"/>
+      <c r="H275" s="9"/>
     </row>
     <row r="276" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E276" s="15"/>
-      <c r="F276" s="15"/>
-      <c r="G276" s="15"/>
-      <c r="H276" s="15"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="9"/>
+      <c r="G276" s="9"/>
+      <c r="H276" s="9"/>
     </row>
     <row r="277" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E277" s="15"/>
-      <c r="F277" s="15"/>
-      <c r="G277" s="15"/>
-      <c r="H277" s="15"/>
+      <c r="E277" s="9"/>
+      <c r="F277" s="9"/>
+      <c r="G277" s="9"/>
+      <c r="H277" s="9"/>
     </row>
     <row r="278" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E278" s="15"/>
-      <c r="F278" s="15"/>
-      <c r="G278" s="15"/>
-      <c r="H278" s="15"/>
+      <c r="E278" s="9"/>
+      <c r="F278" s="9"/>
+      <c r="G278" s="9"/>
+      <c r="H278" s="9"/>
     </row>
     <row r="279" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E279" s="15"/>
-      <c r="F279" s="15"/>
-      <c r="G279" s="15"/>
-      <c r="H279" s="15"/>
+      <c r="E279" s="9"/>
+      <c r="F279" s="9"/>
+      <c r="G279" s="9"/>
+      <c r="H279" s="9"/>
     </row>
     <row r="280" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E280" s="15"/>
-      <c r="F280" s="15"/>
-      <c r="G280" s="15"/>
-      <c r="H280" s="15"/>
+      <c r="E280" s="9"/>
+      <c r="F280" s="9"/>
+      <c r="G280" s="9"/>
+      <c r="H280" s="9"/>
     </row>
     <row r="281" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E281" s="15"/>
-      <c r="F281" s="15"/>
-      <c r="G281" s="15"/>
-      <c r="H281" s="15"/>
+      <c r="E281" s="9"/>
+      <c r="F281" s="9"/>
+      <c r="G281" s="9"/>
+      <c r="H281" s="9"/>
     </row>
     <row r="282" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E282" s="15"/>
-      <c r="F282" s="15"/>
-      <c r="G282" s="15"/>
-      <c r="H282" s="15"/>
+      <c r="E282" s="9"/>
+      <c r="F282" s="9"/>
+      <c r="G282" s="9"/>
+      <c r="H282" s="9"/>
     </row>
     <row r="283" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E283" s="15"/>
-      <c r="F283" s="15"/>
-      <c r="G283" s="15"/>
-      <c r="H283" s="15"/>
+      <c r="E283" s="9"/>
+      <c r="F283" s="9"/>
+      <c r="G283" s="9"/>
+      <c r="H283" s="9"/>
     </row>
     <row r="284" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E284" s="15"/>
-      <c r="F284" s="15"/>
-      <c r="G284" s="15"/>
-      <c r="H284" s="15"/>
+      <c r="E284" s="9"/>
+      <c r="F284" s="9"/>
+      <c r="G284" s="9"/>
+      <c r="H284" s="9"/>
     </row>
     <row r="285" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E285" s="15"/>
-      <c r="F285" s="15"/>
-      <c r="G285" s="15"/>
-      <c r="H285" s="15"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="9"/>
+      <c r="G285" s="9"/>
+      <c r="H285" s="9"/>
     </row>
     <row r="286" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E286" s="15"/>
-      <c r="F286" s="15"/>
-      <c r="G286" s="15"/>
-      <c r="H286" s="15"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="9"/>
+      <c r="G286" s="9"/>
+      <c r="H286" s="9"/>
     </row>
     <row r="287" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E287" s="15"/>
-      <c r="F287" s="15"/>
-      <c r="G287" s="15"/>
-      <c r="H287" s="15"/>
+      <c r="E287" s="9"/>
+      <c r="F287" s="9"/>
+      <c r="G287" s="9"/>
+      <c r="H287" s="9"/>
     </row>
     <row r="288" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E288" s="15"/>
-      <c r="F288" s="15"/>
-      <c r="G288" s="15"/>
-      <c r="H288" s="15"/>
+      <c r="E288" s="9"/>
+      <c r="F288" s="9"/>
+      <c r="G288" s="9"/>
+      <c r="H288" s="9"/>
     </row>
     <row r="289" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E289" s="15"/>
-      <c r="F289" s="15"/>
-      <c r="G289" s="15"/>
-      <c r="H289" s="15"/>
+      <c r="E289" s="9"/>
+      <c r="F289" s="9"/>
+      <c r="G289" s="9"/>
+      <c r="H289" s="9"/>
     </row>
     <row r="290" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E290" s="15"/>
-      <c r="F290" s="15"/>
-      <c r="G290" s="15"/>
-      <c r="H290" s="15"/>
+      <c r="E290" s="9"/>
+      <c r="F290" s="9"/>
+      <c r="G290" s="9"/>
+      <c r="H290" s="9"/>
     </row>
     <row r="291" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E291" s="15"/>
-      <c r="F291" s="15"/>
-      <c r="G291" s="15"/>
-      <c r="H291" s="15"/>
+      <c r="E291" s="9"/>
+      <c r="F291" s="9"/>
+      <c r="G291" s="9"/>
+      <c r="H291" s="9"/>
     </row>
     <row r="292" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E292" s="15"/>
-      <c r="F292" s="15"/>
-      <c r="G292" s="15"/>
-      <c r="H292" s="15"/>
+      <c r="E292" s="9"/>
+      <c r="F292" s="9"/>
+      <c r="G292" s="9"/>
+      <c r="H292" s="9"/>
     </row>
     <row r="293" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E293" s="15"/>
-      <c r="F293" s="15"/>
-      <c r="G293" s="15"/>
-      <c r="H293" s="15"/>
+      <c r="E293" s="9"/>
+      <c r="F293" s="9"/>
+      <c r="G293" s="9"/>
+      <c r="H293" s="9"/>
     </row>
     <row r="294" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E294" s="15"/>
-      <c r="F294" s="15"/>
-      <c r="G294" s="15"/>
-      <c r="H294" s="15"/>
+      <c r="E294" s="9"/>
+      <c r="F294" s="9"/>
+      <c r="G294" s="9"/>
+      <c r="H294" s="9"/>
     </row>
     <row r="295" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E295" s="15"/>
-      <c r="F295" s="15"/>
-      <c r="G295" s="15"/>
-      <c r="H295" s="15"/>
+      <c r="E295" s="9"/>
+      <c r="F295" s="9"/>
+      <c r="G295" s="9"/>
+      <c r="H295" s="9"/>
     </row>
     <row r="296" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E296" s="15"/>
-      <c r="F296" s="15"/>
-      <c r="G296" s="15"/>
-      <c r="H296" s="15"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="9"/>
+      <c r="G296" s="9"/>
+      <c r="H296" s="9"/>
     </row>
     <row r="297" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E297" s="15"/>
-      <c r="F297" s="15"/>
-      <c r="G297" s="15"/>
-      <c r="H297" s="15"/>
+      <c r="E297" s="9"/>
+      <c r="F297" s="9"/>
+      <c r="G297" s="9"/>
+      <c r="H297" s="9"/>
     </row>
     <row r="298" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E298" s="15"/>
-      <c r="F298" s="15"/>
-      <c r="G298" s="15"/>
-      <c r="H298" s="15"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="9"/>
+      <c r="G298" s="9"/>
+      <c r="H298" s="9"/>
     </row>
     <row r="299" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E299" s="15"/>
-      <c r="F299" s="15"/>
-      <c r="G299" s="15"/>
-      <c r="H299" s="15"/>
+      <c r="E299" s="9"/>
+      <c r="F299" s="9"/>
+      <c r="G299" s="9"/>
+      <c r="H299" s="9"/>
     </row>
     <row r="300" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E300" s="15"/>
-      <c r="F300" s="15"/>
-      <c r="G300" s="15"/>
-      <c r="H300" s="15"/>
+      <c r="E300" s="9"/>
+      <c r="F300" s="9"/>
+      <c r="G300" s="9"/>
+      <c r="H300" s="9"/>
     </row>
     <row r="301" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E301" s="15"/>
-      <c r="F301" s="15"/>
-      <c r="G301" s="15"/>
-      <c r="H301" s="15"/>
+      <c r="E301" s="9"/>
+      <c r="F301" s="9"/>
+      <c r="G301" s="9"/>
+      <c r="H301" s="9"/>
     </row>
     <row r="302" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E302" s="15"/>
-      <c r="F302" s="15"/>
-      <c r="G302" s="15"/>
-      <c r="H302" s="15"/>
+      <c r="E302" s="9"/>
+      <c r="F302" s="9"/>
+      <c r="G302" s="9"/>
+      <c r="H302" s="9"/>
     </row>
     <row r="303" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E303" s="15"/>
-      <c r="F303" s="15"/>
-      <c r="G303" s="15"/>
-      <c r="H303" s="15"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="9"/>
+      <c r="G303" s="9"/>
+      <c r="H303" s="9"/>
     </row>
     <row r="304" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E304" s="15"/>
-      <c r="F304" s="15"/>
-      <c r="G304" s="15"/>
-      <c r="H304" s="15"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="9"/>
+      <c r="G304" s="9"/>
+      <c r="H304" s="9"/>
     </row>
     <row r="305" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E305" s="15"/>
-      <c r="F305" s="15"/>
-      <c r="G305" s="15"/>
-      <c r="H305" s="15"/>
+      <c r="E305" s="9"/>
+      <c r="F305" s="9"/>
+      <c r="G305" s="9"/>
+      <c r="H305" s="9"/>
     </row>
     <row r="306" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E306" s="15"/>
-      <c r="F306" s="15"/>
-      <c r="G306" s="15"/>
-      <c r="H306" s="15"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="9"/>
+      <c r="G306" s="9"/>
+      <c r="H306" s="9"/>
     </row>
     <row r="307" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E307" s="15"/>
-      <c r="F307" s="15"/>
-      <c r="G307" s="15"/>
-      <c r="H307" s="15"/>
+      <c r="E307" s="9"/>
+      <c r="F307" s="9"/>
+      <c r="G307" s="9"/>
+      <c r="H307" s="9"/>
     </row>
     <row r="308" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E308" s="15"/>
-      <c r="F308" s="15"/>
-      <c r="G308" s="15"/>
-      <c r="H308" s="15"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="9"/>
+      <c r="G308" s="9"/>
+      <c r="H308" s="9"/>
     </row>
     <row r="309" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E309" s="15"/>
-      <c r="F309" s="15"/>
-      <c r="G309" s="15"/>
-      <c r="H309" s="15"/>
+      <c r="E309" s="9"/>
+      <c r="F309" s="9"/>
+      <c r="G309" s="9"/>
+      <c r="H309" s="9"/>
     </row>
     <row r="310" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E310" s="15"/>
-      <c r="F310" s="15"/>
-      <c r="G310" s="15"/>
-      <c r="H310" s="15"/>
+      <c r="E310" s="9"/>
+      <c r="F310" s="9"/>
+      <c r="G310" s="9"/>
+      <c r="H310" s="9"/>
     </row>
     <row r="311" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E311" s="15"/>
-      <c r="F311" s="15"/>
-      <c r="G311" s="15"/>
-      <c r="H311" s="15"/>
+      <c r="E311" s="9"/>
+      <c r="F311" s="9"/>
+      <c r="G311" s="9"/>
+      <c r="H311" s="9"/>
     </row>
     <row r="312" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E312" s="15"/>
-      <c r="F312" s="15"/>
-      <c r="G312" s="15"/>
-      <c r="H312" s="15"/>
+      <c r="E312" s="9"/>
+      <c r="F312" s="9"/>
+      <c r="G312" s="9"/>
+      <c r="H312" s="9"/>
     </row>
     <row r="313" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E313" s="15"/>
-      <c r="F313" s="15"/>
-      <c r="G313" s="15"/>
-      <c r="H313" s="15"/>
+      <c r="E313" s="9"/>
+      <c r="F313" s="9"/>
+      <c r="G313" s="9"/>
+      <c r="H313" s="9"/>
     </row>
     <row r="314" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E314" s="15"/>
-      <c r="F314" s="15"/>
-      <c r="G314" s="15"/>
-      <c r="H314" s="15"/>
+      <c r="E314" s="9"/>
+      <c r="F314" s="9"/>
+      <c r="G314" s="9"/>
+      <c r="H314" s="9"/>
     </row>
     <row r="315" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E315" s="15"/>
-      <c r="F315" s="15"/>
-      <c r="G315" s="15"/>
-      <c r="H315" s="15"/>
+      <c r="E315" s="9"/>
+      <c r="F315" s="9"/>
+      <c r="G315" s="9"/>
+      <c r="H315" s="9"/>
     </row>
     <row r="316" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E316" s="15"/>
-      <c r="F316" s="15"/>
-      <c r="G316" s="15"/>
-      <c r="H316" s="15"/>
+      <c r="E316" s="9"/>
+      <c r="F316" s="9"/>
+      <c r="G316" s="9"/>
+      <c r="H316" s="9"/>
     </row>
     <row r="317" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E317" s="15"/>
-      <c r="F317" s="15"/>
-      <c r="G317" s="15"/>
-      <c r="H317" s="15"/>
+      <c r="E317" s="9"/>
+      <c r="F317" s="9"/>
+      <c r="G317" s="9"/>
+      <c r="H317" s="9"/>
     </row>
     <row r="318" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E318" s="15"/>
-      <c r="F318" s="15"/>
-      <c r="G318" s="15"/>
-      <c r="H318" s="15"/>
+      <c r="E318" s="9"/>
+      <c r="F318" s="9"/>
+      <c r="G318" s="9"/>
+      <c r="H318" s="9"/>
     </row>
     <row r="319" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E319" s="15"/>
-      <c r="F319" s="15"/>
-      <c r="G319" s="15"/>
-      <c r="H319" s="15"/>
+      <c r="E319" s="9"/>
+      <c r="F319" s="9"/>
+      <c r="G319" s="9"/>
+      <c r="H319" s="9"/>
     </row>
     <row r="320" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E320" s="15"/>
-      <c r="F320" s="15"/>
-      <c r="G320" s="15"/>
-      <c r="H320" s="15"/>
+      <c r="E320" s="9"/>
+      <c r="F320" s="9"/>
+      <c r="G320" s="9"/>
+      <c r="H320" s="9"/>
     </row>
     <row r="321" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E321" s="15"/>
-      <c r="F321" s="15"/>
-      <c r="G321" s="15"/>
-      <c r="H321" s="15"/>
+      <c r="E321" s="9"/>
+      <c r="F321" s="9"/>
+      <c r="G321" s="9"/>
+      <c r="H321" s="9"/>
     </row>
     <row r="322" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E322" s="15"/>
-      <c r="F322" s="15"/>
-      <c r="G322" s="15"/>
-      <c r="H322" s="15"/>
+      <c r="E322" s="9"/>
+      <c r="F322" s="9"/>
+      <c r="G322" s="9"/>
+      <c r="H322" s="9"/>
     </row>
     <row r="323" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E323" s="15"/>
-      <c r="F323" s="15"/>
-      <c r="G323" s="15"/>
-      <c r="H323" s="15"/>
+      <c r="E323" s="9"/>
+      <c r="F323" s="9"/>
+      <c r="G323" s="9"/>
+      <c r="H323" s="9"/>
     </row>
     <row r="324" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E324" s="15"/>
-      <c r="F324" s="15"/>
-      <c r="G324" s="15"/>
-      <c r="H324" s="15"/>
+      <c r="E324" s="9"/>
+      <c r="F324" s="9"/>
+      <c r="G324" s="9"/>
+      <c r="H324" s="9"/>
     </row>
     <row r="325" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E325" s="15"/>
-      <c r="F325" s="15"/>
-      <c r="G325" s="15"/>
-      <c r="H325" s="15"/>
+      <c r="E325" s="9"/>
+      <c r="F325" s="9"/>
+      <c r="G325" s="9"/>
+      <c r="H325" s="9"/>
     </row>
     <row r="326" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E326" s="15"/>
-      <c r="F326" s="15"/>
-      <c r="G326" s="15"/>
-      <c r="H326" s="15"/>
+      <c r="E326" s="9"/>
+      <c r="F326" s="9"/>
+      <c r="G326" s="9"/>
+      <c r="H326" s="9"/>
     </row>
     <row r="327" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E327" s="15"/>
-      <c r="F327" s="15"/>
-      <c r="G327" s="15"/>
-      <c r="H327" s="15"/>
+      <c r="E327" s="9"/>
+      <c r="F327" s="9"/>
+      <c r="G327" s="9"/>
+      <c r="H327" s="9"/>
     </row>
     <row r="328" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E328" s="15"/>
-      <c r="F328" s="15"/>
-      <c r="G328" s="15"/>
-      <c r="H328" s="15"/>
+      <c r="E328" s="9"/>
+      <c r="F328" s="9"/>
+      <c r="G328" s="9"/>
+      <c r="H328" s="9"/>
     </row>
     <row r="329" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E329" s="15"/>
-      <c r="F329" s="15"/>
-      <c r="G329" s="15"/>
-      <c r="H329" s="15"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="9"/>
+      <c r="G329" s="9"/>
+      <c r="H329" s="9"/>
     </row>
     <row r="330" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E330" s="15"/>
-      <c r="F330" s="15"/>
-      <c r="G330" s="15"/>
-      <c r="H330" s="15"/>
+      <c r="E330" s="9"/>
+      <c r="F330" s="9"/>
+      <c r="G330" s="9"/>
+      <c r="H330" s="9"/>
     </row>
     <row r="331" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E331" s="15"/>
-      <c r="F331" s="15"/>
-      <c r="G331" s="15"/>
-      <c r="H331" s="15"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="9"/>
+      <c r="G331" s="9"/>
+      <c r="H331" s="9"/>
     </row>
     <row r="332" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E332" s="15"/>
-      <c r="F332" s="15"/>
-      <c r="G332" s="15"/>
-      <c r="H332" s="15"/>
+      <c r="E332" s="9"/>
+      <c r="F332" s="9"/>
+      <c r="G332" s="9"/>
+      <c r="H332" s="9"/>
     </row>
     <row r="333" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E333" s="15"/>
-      <c r="F333" s="15"/>
-      <c r="G333" s="15"/>
-      <c r="H333" s="15"/>
+      <c r="E333" s="9"/>
+      <c r="F333" s="9"/>
+      <c r="G333" s="9"/>
+      <c r="H333" s="9"/>
     </row>
     <row r="334" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E334" s="15"/>
-      <c r="F334" s="15"/>
-      <c r="G334" s="15"/>
-      <c r="H334" s="15"/>
+      <c r="E334" s="9"/>
+      <c r="F334" s="9"/>
+      <c r="G334" s="9"/>
+      <c r="H334" s="9"/>
     </row>
     <row r="335" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E335" s="15"/>
-      <c r="F335" s="15"/>
-      <c r="G335" s="15"/>
-      <c r="H335" s="15"/>
+      <c r="E335" s="9"/>
+      <c r="F335" s="9"/>
+      <c r="G335" s="9"/>
+      <c r="H335" s="9"/>
     </row>
     <row r="336" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E336" s="15"/>
-      <c r="F336" s="15"/>
-      <c r="G336" s="15"/>
-      <c r="H336" s="15"/>
+      <c r="E336" s="9"/>
+      <c r="F336" s="9"/>
+      <c r="G336" s="9"/>
+      <c r="H336" s="9"/>
     </row>
     <row r="337" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E337" s="15"/>
-      <c r="F337" s="15"/>
-      <c r="G337" s="15"/>
-      <c r="H337" s="15"/>
+      <c r="E337" s="9"/>
+      <c r="F337" s="9"/>
+      <c r="G337" s="9"/>
+      <c r="H337" s="9"/>
     </row>
     <row r="338" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E338" s="15"/>
-      <c r="F338" s="15"/>
-      <c r="G338" s="15"/>
-      <c r="H338" s="15"/>
+      <c r="E338" s="9"/>
+      <c r="F338" s="9"/>
+      <c r="G338" s="9"/>
+      <c r="H338" s="9"/>
     </row>
     <row r="339" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E339" s="15"/>
-      <c r="F339" s="15"/>
-      <c r="G339" s="15"/>
-      <c r="H339" s="15"/>
+      <c r="E339" s="9"/>
+      <c r="F339" s="9"/>
+      <c r="G339" s="9"/>
+      <c r="H339" s="9"/>
     </row>
     <row r="340" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E340" s="15"/>
-      <c r="F340" s="15"/>
-      <c r="G340" s="15"/>
-      <c r="H340" s="15"/>
+      <c r="E340" s="9"/>
+      <c r="F340" s="9"/>
+      <c r="G340" s="9"/>
+      <c r="H340" s="9"/>
     </row>
     <row r="341" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E341" s="15"/>
-      <c r="F341" s="15"/>
-      <c r="G341" s="15"/>
-      <c r="H341" s="15"/>
+      <c r="E341" s="9"/>
+      <c r="F341" s="9"/>
+      <c r="G341" s="9"/>
+      <c r="H341" s="9"/>
     </row>
     <row r="342" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E342" s="15"/>
-      <c r="F342" s="15"/>
-      <c r="G342" s="15"/>
-      <c r="H342" s="15"/>
+      <c r="E342" s="9"/>
+      <c r="F342" s="9"/>
+      <c r="G342" s="9"/>
+      <c r="H342" s="9"/>
     </row>
     <row r="343" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E343" s="15"/>
-      <c r="F343" s="15"/>
-      <c r="G343" s="15"/>
-      <c r="H343" s="15"/>
+      <c r="E343" s="9"/>
+      <c r="F343" s="9"/>
+      <c r="G343" s="9"/>
+      <c r="H343" s="9"/>
     </row>
     <row r="344" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E344" s="15"/>
-      <c r="F344" s="15"/>
-      <c r="G344" s="15"/>
-      <c r="H344" s="15"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="9"/>
+      <c r="G344" s="9"/>
+      <c r="H344" s="9"/>
     </row>
     <row r="345" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E345" s="15"/>
-      <c r="F345" s="15"/>
-      <c r="G345" s="15"/>
-      <c r="H345" s="15"/>
+      <c r="E345" s="9"/>
+      <c r="F345" s="9"/>
+      <c r="G345" s="9"/>
+      <c r="H345" s="9"/>
     </row>
     <row r="346" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E346" s="15"/>
-      <c r="F346" s="15"/>
-      <c r="G346" s="15"/>
-      <c r="H346" s="15"/>
+      <c r="E346" s="9"/>
+      <c r="F346" s="9"/>
+      <c r="G346" s="9"/>
+      <c r="H346" s="9"/>
     </row>
     <row r="347" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E347" s="15"/>
-      <c r="F347" s="15"/>
-      <c r="G347" s="15"/>
-      <c r="H347" s="15"/>
+      <c r="E347" s="9"/>
+      <c r="F347" s="9"/>
+      <c r="G347" s="9"/>
+      <c r="H347" s="9"/>
     </row>
     <row r="348" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E348" s="15"/>
-      <c r="F348" s="15"/>
-      <c r="G348" s="15"/>
-      <c r="H348" s="15"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="9"/>
+      <c r="G348" s="9"/>
+      <c r="H348" s="9"/>
     </row>
     <row r="349" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E349" s="15"/>
-      <c r="F349" s="15"/>
-      <c r="G349" s="15"/>
-      <c r="H349" s="15"/>
+      <c r="E349" s="9"/>
+      <c r="F349" s="9"/>
+      <c r="G349" s="9"/>
+      <c r="H349" s="9"/>
     </row>
     <row r="350" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E350" s="15"/>
-      <c r="F350" s="15"/>
-      <c r="G350" s="15"/>
-      <c r="H350" s="15"/>
+      <c r="E350" s="9"/>
+      <c r="F350" s="9"/>
+      <c r="G350" s="9"/>
+      <c r="H350" s="9"/>
     </row>
     <row r="351" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E351" s="15"/>
-      <c r="F351" s="15"/>
-      <c r="G351" s="15"/>
-      <c r="H351" s="15"/>
+      <c r="E351" s="9"/>
+      <c r="F351" s="9"/>
+      <c r="G351" s="9"/>
+      <c r="H351" s="9"/>
     </row>
     <row r="352" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E352" s="15"/>
-      <c r="F352" s="15"/>
-      <c r="G352" s="15"/>
-      <c r="H352" s="15"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="9"/>
+      <c r="G352" s="9"/>
+      <c r="H352" s="9"/>
     </row>
     <row r="353" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E353" s="15"/>
-      <c r="F353" s="15"/>
-      <c r="G353" s="15"/>
-      <c r="H353" s="15"/>
+      <c r="E353" s="9"/>
+      <c r="F353" s="9"/>
+      <c r="G353" s="9"/>
+      <c r="H353" s="9"/>
     </row>
     <row r="354" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E354" s="15"/>
-      <c r="F354" s="15"/>
-      <c r="G354" s="15"/>
-      <c r="H354" s="15"/>
+      <c r="E354" s="9"/>
+      <c r="F354" s="9"/>
+      <c r="G354" s="9"/>
+      <c r="H354" s="9"/>
     </row>
     <row r="355" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E355" s="15"/>
-      <c r="F355" s="15"/>
-      <c r="G355" s="15"/>
-      <c r="H355" s="15"/>
+      <c r="E355" s="9"/>
+      <c r="F355" s="9"/>
+      <c r="G355" s="9"/>
+      <c r="H355" s="9"/>
     </row>
     <row r="356" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E356" s="15"/>
-      <c r="F356" s="15"/>
-      <c r="G356" s="15"/>
-      <c r="H356" s="15"/>
+      <c r="E356" s="9"/>
+      <c r="F356" s="9"/>
+      <c r="G356" s="9"/>
+      <c r="H356" s="9"/>
     </row>
     <row r="357" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E357" s="15"/>
-      <c r="F357" s="15"/>
-      <c r="G357" s="15"/>
-      <c r="H357" s="15"/>
+      <c r="E357" s="9"/>
+      <c r="F357" s="9"/>
+      <c r="G357" s="9"/>
+      <c r="H357" s="9"/>
     </row>
     <row r="358" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E358" s="15"/>
-      <c r="F358" s="15"/>
-      <c r="G358" s="15"/>
-      <c r="H358" s="15"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="9"/>
+      <c r="G358" s="9"/>
+      <c r="H358" s="9"/>
     </row>
     <row r="359" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E359" s="15"/>
-      <c r="F359" s="15"/>
-      <c r="G359" s="15"/>
-      <c r="H359" s="15"/>
+      <c r="E359" s="9"/>
+      <c r="F359" s="9"/>
+      <c r="G359" s="9"/>
+      <c r="H359" s="9"/>
     </row>
     <row r="360" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E360" s="15"/>
-      <c r="F360" s="15"/>
-      <c r="G360" s="15"/>
-      <c r="H360" s="15"/>
+      <c r="E360" s="9"/>
+      <c r="F360" s="9"/>
+      <c r="G360" s="9"/>
+      <c r="H360" s="9"/>
     </row>
     <row r="361" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E361" s="15"/>
-      <c r="F361" s="15"/>
-      <c r="G361" s="15"/>
-      <c r="H361" s="15"/>
+      <c r="E361" s="9"/>
+      <c r="F361" s="9"/>
+      <c r="G361" s="9"/>
+      <c r="H361" s="9"/>
     </row>
     <row r="362" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E362" s="15"/>
-      <c r="F362" s="15"/>
-      <c r="G362" s="15"/>
-      <c r="H362" s="15"/>
+      <c r="E362" s="9"/>
+      <c r="F362" s="9"/>
+      <c r="G362" s="9"/>
+      <c r="H362" s="9"/>
     </row>
     <row r="363" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E363" s="15"/>
-      <c r="F363" s="15"/>
-      <c r="G363" s="15"/>
-      <c r="H363" s="15"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="9"/>
+      <c r="G363" s="9"/>
+      <c r="H363" s="9"/>
     </row>
     <row r="364" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E364" s="15"/>
-      <c r="F364" s="15"/>
-      <c r="G364" s="15"/>
-      <c r="H364" s="15"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="9"/>
+      <c r="G364" s="9"/>
+      <c r="H364" s="9"/>
     </row>
     <row r="365" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E365" s="15"/>
-      <c r="F365" s="15"/>
-      <c r="G365" s="15"/>
-      <c r="H365" s="15"/>
+      <c r="E365" s="9"/>
+      <c r="F365" s="9"/>
+      <c r="G365" s="9"/>
+      <c r="H365" s="9"/>
     </row>
     <row r="366" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E366" s="15"/>
-      <c r="F366" s="15"/>
-      <c r="G366" s="15"/>
-      <c r="H366" s="15"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="9"/>
+      <c r="G366" s="9"/>
+      <c r="H366" s="9"/>
     </row>
     <row r="367" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E367" s="15"/>
-      <c r="F367" s="15"/>
-      <c r="G367" s="15"/>
-      <c r="H367" s="15"/>
+      <c r="E367" s="9"/>
+      <c r="F367" s="9"/>
+      <c r="G367" s="9"/>
+      <c r="H367" s="9"/>
     </row>
     <row r="368" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E368" s="15"/>
-      <c r="F368" s="15"/>
-      <c r="G368" s="15"/>
-      <c r="H368" s="15"/>
+      <c r="E368" s="9"/>
+      <c r="F368" s="9"/>
+      <c r="G368" s="9"/>
+      <c r="H368" s="9"/>
     </row>
     <row r="369" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E369" s="15"/>
-      <c r="F369" s="15"/>
-      <c r="G369" s="15"/>
-      <c r="H369" s="15"/>
+      <c r="E369" s="9"/>
+      <c r="F369" s="9"/>
+      <c r="G369" s="9"/>
+      <c r="H369" s="9"/>
     </row>
     <row r="370" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E370" s="15"/>
-      <c r="F370" s="15"/>
-      <c r="G370" s="15"/>
-      <c r="H370" s="15"/>
+      <c r="E370" s="9"/>
+      <c r="F370" s="9"/>
+      <c r="G370" s="9"/>
+      <c r="H370" s="9"/>
     </row>
     <row r="371" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E371" s="15"/>
-      <c r="F371" s="15"/>
-      <c r="G371" s="15"/>
-      <c r="H371" s="15"/>
+      <c r="E371" s="9"/>
+      <c r="F371" s="9"/>
+      <c r="G371" s="9"/>
+      <c r="H371" s="9"/>
     </row>
     <row r="372" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E372" s="15"/>
-      <c r="F372" s="15"/>
-      <c r="G372" s="15"/>
-      <c r="H372" s="15"/>
+      <c r="E372" s="9"/>
+      <c r="F372" s="9"/>
+      <c r="G372" s="9"/>
+      <c r="H372" s="9"/>
     </row>
     <row r="373" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E373" s="15"/>
-      <c r="F373" s="15"/>
-      <c r="G373" s="15"/>
-      <c r="H373" s="15"/>
+      <c r="E373" s="9"/>
+      <c r="F373" s="9"/>
+      <c r="G373" s="9"/>
+      <c r="H373" s="9"/>
     </row>
     <row r="374" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E374" s="15"/>
-      <c r="F374" s="15"/>
-      <c r="G374" s="15"/>
-      <c r="H374" s="15"/>
+      <c r="E374" s="9"/>
+      <c r="F374" s="9"/>
+      <c r="G374" s="9"/>
+      <c r="H374" s="9"/>
     </row>
     <row r="375" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E375" s="15"/>
-      <c r="F375" s="15"/>
-      <c r="G375" s="15"/>
-      <c r="H375" s="15"/>
+      <c r="E375" s="9"/>
+      <c r="F375" s="9"/>
+      <c r="G375" s="9"/>
+      <c r="H375" s="9"/>
     </row>
     <row r="376" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E376" s="15"/>
-      <c r="F376" s="15"/>
-      <c r="G376" s="15"/>
-      <c r="H376" s="15"/>
+      <c r="E376" s="9"/>
+      <c r="F376" s="9"/>
+      <c r="G376" s="9"/>
+      <c r="H376" s="9"/>
     </row>
     <row r="377" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E377" s="15"/>
-      <c r="F377" s="15"/>
-      <c r="G377" s="15"/>
-      <c r="H377" s="15"/>
+      <c r="E377" s="9"/>
+      <c r="F377" s="9"/>
+      <c r="G377" s="9"/>
+      <c r="H377" s="9"/>
     </row>
     <row r="378" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E378" s="15"/>
-      <c r="F378" s="15"/>
-      <c r="G378" s="15"/>
-      <c r="H378" s="15"/>
+      <c r="E378" s="9"/>
+      <c r="F378" s="9"/>
+      <c r="G378" s="9"/>
+      <c r="H378" s="9"/>
     </row>
     <row r="379" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E379" s="15"/>
-      <c r="F379" s="15"/>
-      <c r="G379" s="15"/>
-      <c r="H379" s="15"/>
+      <c r="E379" s="9"/>
+      <c r="F379" s="9"/>
+      <c r="G379" s="9"/>
+      <c r="H379" s="9"/>
     </row>
     <row r="380" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E380" s="15"/>
-      <c r="F380" s="15"/>
-      <c r="G380" s="15"/>
-      <c r="H380" s="15"/>
+      <c r="E380" s="9"/>
+      <c r="F380" s="9"/>
+      <c r="G380" s="9"/>
+      <c r="H380" s="9"/>
     </row>
     <row r="381" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E381" s="15"/>
-      <c r="F381" s="15"/>
-      <c r="G381" s="15"/>
-      <c r="H381" s="15"/>
+      <c r="E381" s="9"/>
+      <c r="F381" s="9"/>
+      <c r="G381" s="9"/>
+      <c r="H381" s="9"/>
     </row>
     <row r="382" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E382" s="15"/>
-      <c r="F382" s="15"/>
-      <c r="G382" s="15"/>
-      <c r="H382" s="15"/>
+      <c r="E382" s="9"/>
+      <c r="F382" s="9"/>
+      <c r="G382" s="9"/>
+      <c r="H382" s="9"/>
     </row>
     <row r="383" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E383" s="15"/>
-      <c r="F383" s="15"/>
-      <c r="G383" s="15"/>
-      <c r="H383" s="15"/>
+      <c r="E383" s="9"/>
+      <c r="F383" s="9"/>
+      <c r="G383" s="9"/>
+      <c r="H383" s="9"/>
     </row>
     <row r="384" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E384" s="15"/>
-      <c r="F384" s="15"/>
-      <c r="G384" s="15"/>
-      <c r="H384" s="15"/>
+      <c r="E384" s="9"/>
+      <c r="F384" s="9"/>
+      <c r="G384" s="9"/>
+      <c r="H384" s="9"/>
     </row>
     <row r="385" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E385" s="15"/>
-      <c r="F385" s="15"/>
-      <c r="G385" s="15"/>
-      <c r="H385" s="15"/>
+      <c r="E385" s="9"/>
+      <c r="F385" s="9"/>
+      <c r="G385" s="9"/>
+      <c r="H385" s="9"/>
     </row>
     <row r="386" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E386" s="15"/>
-      <c r="F386" s="15"/>
-      <c r="G386" s="15"/>
-      <c r="H386" s="15"/>
+      <c r="E386" s="9"/>
+      <c r="F386" s="9"/>
+      <c r="G386" s="9"/>
+      <c r="H386" s="9"/>
     </row>
     <row r="387" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E387" s="15"/>
-      <c r="F387" s="15"/>
-      <c r="G387" s="15"/>
-      <c r="H387" s="15"/>
+      <c r="E387" s="9"/>
+      <c r="F387" s="9"/>
+      <c r="G387" s="9"/>
+      <c r="H387" s="9"/>
     </row>
     <row r="388" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E388" s="15"/>
-      <c r="F388" s="15"/>
-      <c r="G388" s="15"/>
-      <c r="H388" s="15"/>
+      <c r="E388" s="9"/>
+      <c r="F388" s="9"/>
+      <c r="G388" s="9"/>
+      <c r="H388" s="9"/>
     </row>
     <row r="389" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E389" s="15"/>
-      <c r="F389" s="15"/>
-      <c r="G389" s="15"/>
-      <c r="H389" s="15"/>
+      <c r="E389" s="9"/>
+      <c r="F389" s="9"/>
+      <c r="G389" s="9"/>
+      <c r="H389" s="9"/>
     </row>
     <row r="390" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E390" s="15"/>
-      <c r="F390" s="15"/>
-      <c r="G390" s="15"/>
-      <c r="H390" s="15"/>
+      <c r="E390" s="9"/>
+      <c r="F390" s="9"/>
+      <c r="G390" s="9"/>
+      <c r="H390" s="9"/>
     </row>
     <row r="391" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E391" s="15"/>
-      <c r="F391" s="15"/>
-      <c r="G391" s="15"/>
-      <c r="H391" s="15"/>
+      <c r="E391" s="9"/>
+      <c r="F391" s="9"/>
+      <c r="G391" s="9"/>
+      <c r="H391" s="9"/>
     </row>
     <row r="392" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E392" s="15"/>
-      <c r="F392" s="15"/>
-      <c r="G392" s="15"/>
-      <c r="H392" s="15"/>
+      <c r="E392" s="9"/>
+      <c r="F392" s="9"/>
+      <c r="G392" s="9"/>
+      <c r="H392" s="9"/>
     </row>
     <row r="393" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E393" s="15"/>
-      <c r="F393" s="15"/>
-      <c r="G393" s="15"/>
-      <c r="H393" s="15"/>
+      <c r="E393" s="9"/>
+      <c r="F393" s="9"/>
+      <c r="G393" s="9"/>
+      <c r="H393" s="9"/>
     </row>
     <row r="394" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E394" s="15"/>
-      <c r="F394" s="15"/>
-      <c r="G394" s="15"/>
-      <c r="H394" s="15"/>
+      <c r="E394" s="9"/>
+      <c r="F394" s="9"/>
+      <c r="G394" s="9"/>
+      <c r="H394" s="9"/>
     </row>
     <row r="395" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E395" s="15"/>
-      <c r="F395" s="15"/>
-      <c r="G395" s="15"/>
-      <c r="H395" s="15"/>
+      <c r="E395" s="9"/>
+      <c r="F395" s="9"/>
+      <c r="G395" s="9"/>
+      <c r="H395" s="9"/>
     </row>
     <row r="396" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E396" s="15"/>
-      <c r="F396" s="15"/>
-      <c r="G396" s="15"/>
-      <c r="H396" s="15"/>
+      <c r="E396" s="9"/>
+      <c r="F396" s="9"/>
+      <c r="G396" s="9"/>
+      <c r="H396" s="9"/>
     </row>
     <row r="397" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E397" s="15"/>
-      <c r="F397" s="15"/>
-      <c r="G397" s="15"/>
-      <c r="H397" s="15"/>
+      <c r="E397" s="9"/>
+      <c r="F397" s="9"/>
+      <c r="G397" s="9"/>
+      <c r="H397" s="9"/>
     </row>
     <row r="398" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E398" s="15"/>
-      <c r="F398" s="15"/>
-      <c r="G398" s="15"/>
-      <c r="H398" s="15"/>
+      <c r="E398" s="9"/>
+      <c r="F398" s="9"/>
+      <c r="G398" s="9"/>
+      <c r="H398" s="9"/>
     </row>
     <row r="399" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E399" s="15"/>
-      <c r="F399" s="15"/>
-      <c r="G399" s="15"/>
-      <c r="H399" s="15"/>
+      <c r="E399" s="9"/>
+      <c r="F399" s="9"/>
+      <c r="G399" s="9"/>
+      <c r="H399" s="9"/>
     </row>
     <row r="400" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E400" s="15"/>
-      <c r="F400" s="15"/>
-      <c r="G400" s="15"/>
-      <c r="H400" s="15"/>
+      <c r="E400" s="9"/>
+      <c r="F400" s="9"/>
+      <c r="G400" s="9"/>
+      <c r="H400" s="9"/>
     </row>
     <row r="401" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E401" s="15"/>
-      <c r="F401" s="15"/>
-      <c r="G401" s="15"/>
-      <c r="H401" s="15"/>
+      <c r="E401" s="9"/>
+      <c r="F401" s="9"/>
+      <c r="G401" s="9"/>
+      <c r="H401" s="9"/>
     </row>
     <row r="402" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E402" s="15"/>
-      <c r="F402" s="15"/>
-      <c r="G402" s="15"/>
-      <c r="H402" s="15"/>
+      <c r="E402" s="9"/>
+      <c r="F402" s="9"/>
+      <c r="G402" s="9"/>
+      <c r="H402" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/testing/testing_subsets/AST_48h_subset/input/plate_layout.xlsx
+++ b/testing/testing_subsets/AST_48h_subset/input/plate_layout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mschikora/samba/scripts/Q-PHAST/testing/testing_subsets/AST_48h_subset/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mschikora/Desktop/Q-PHAST_developing/testing/testing_subsets/AST_48h_subset/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D6D74A-6B57-4642-ACDF-D0DE3EAD9009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D7E816-7E39-B743-9129-3EE07BC05AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22740" windowHeight="15640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,29 +439,6 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -548,6 +525,29 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -937,3068 +937,3068 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AMJ402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="7" customWidth="1"/>
-    <col min="3" max="1009" width="11.5" style="7"/>
-    <col min="1010" max="1024" width="11.5" style="8"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="1" customWidth="1"/>
+    <col min="3" max="1009" width="11.5" style="1"/>
+    <col min="1010" max="1024" width="11.5" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B3" s="10">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="K3" s="5" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="K3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B4" s="10">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="10">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="7">
         <v>3</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="7">
         <v>4</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="10">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="10">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="10">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="10">
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="10">
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="10">
+      <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="10">
+      <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="10">
+      <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="10">
+      <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="10">
+      <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="10">
+      <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B17" s="10">
+      <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B18" s="10">
+      <c r="B18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="7">
         <v>1</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="7">
         <v>2</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B19" s="10">
+      <c r="B19" s="4">
         <v>17</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="9">
         <v>0</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="9">
         <v>1.6E-2</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="9">
         <v>3.1E-2</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="9">
         <v>6.3E-2</v>
       </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="3" t="s">
+      <c r="K19" s="12"/>
+      <c r="L19" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B20" s="10">
+      <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="9">
         <v>0.125</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="9">
         <v>0.25</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="9">
         <v>0.5</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="9">
         <v>1</v>
       </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B21" s="10">
+      <c r="B21" s="4">
         <v>19</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="9">
         <v>2</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="9">
         <v>4</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="9">
         <v>8</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B22" s="10">
+      <c r="B22" s="4">
         <v>20</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B23" s="10">
+      <c r="B23" s="4">
         <v>21</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B24" s="10">
+      <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B25" s="10">
+      <c r="B25" s="4">
         <v>23</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="B26" s="10">
+      <c r="B26" s="4">
         <v>24</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C31" s="20">
+      <c r="C31" s="14">
         <v>1</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="15">
         <v>2</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="15">
         <v>3</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="15">
         <v>4</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="15">
         <v>5</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="15">
         <v>6</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="15">
         <v>7</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="15">
         <v>8</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="15">
         <v>9</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="15">
         <v>10</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M31" s="15">
         <v>11</v>
       </c>
-      <c r="N31" s="22">
+      <c r="N31" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="24" t="str">
+      <c r="C32" s="18" t="str">
         <f t="array" ref="C32:H32">TRANSPOSE(C3:C8)</f>
         <v>Pool</v>
       </c>
-      <c r="D32" s="25" t="str">
+      <c r="D32" s="19" t="str">
         <v>H20</v>
       </c>
-      <c r="E32" s="26" t="str">
+      <c r="E32" s="20" t="str">
         <v>ATCC 22019</v>
       </c>
-      <c r="F32" s="26" t="str">
+      <c r="F32" s="20" t="str">
         <v>Cal-wt</v>
       </c>
-      <c r="G32" s="26" t="str">
+      <c r="G32" s="20" t="str">
         <v>Cg-wt1</v>
       </c>
-      <c r="H32" s="26" t="str">
+      <c r="H32" s="20" t="str">
         <v>Cg-wt2</v>
       </c>
-      <c r="I32" s="27" t="str">
+      <c r="I32" s="21" t="str">
         <f>H32</f>
         <v>Cg-wt2</v>
       </c>
-      <c r="J32" s="27" t="str">
+      <c r="J32" s="21" t="str">
         <f>G32</f>
         <v>Cg-wt1</v>
       </c>
-      <c r="K32" s="27" t="str">
+      <c r="K32" s="21" t="str">
         <f>F32</f>
         <v>Cal-wt</v>
       </c>
-      <c r="L32" s="27" t="str">
+      <c r="L32" s="21" t="str">
         <f>E32</f>
         <v>ATCC 22019</v>
       </c>
-      <c r="M32" s="25" t="str">
+      <c r="M32" s="19" t="str">
         <f>D32</f>
         <v>H20</v>
       </c>
-      <c r="N32" s="24" t="str">
+      <c r="N32" s="18" t="str">
         <f>C32</f>
         <v>Pool</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="26" t="str">
+      <c r="C33" s="20" t="str">
         <f t="array" ref="C33:H33">TRANSPOSE(C9:C14)</f>
         <v>Cp-wt1</v>
       </c>
-      <c r="D33" s="26" t="str">
+      <c r="D33" s="20" t="str">
         <v>Cp-wt2</v>
       </c>
-      <c r="E33" s="26" t="str">
+      <c r="E33" s="20" t="str">
         <v>Ct-wt</v>
       </c>
-      <c r="F33" s="26" t="str">
+      <c r="F33" s="20" t="str">
         <v>Co-wt</v>
       </c>
-      <c r="G33" s="26" t="str">
+      <c r="G33" s="20" t="str">
         <v>Cg-MDR1</v>
       </c>
-      <c r="H33" s="26" t="str">
+      <c r="H33" s="20" t="str">
         <v>Cg-MDR2</v>
       </c>
-      <c r="I33" s="27" t="str">
+      <c r="I33" s="21" t="str">
         <f>H33</f>
         <v>Cg-MDR2</v>
       </c>
-      <c r="J33" s="27" t="str">
+      <c r="J33" s="21" t="str">
         <f>G33</f>
         <v>Cg-MDR1</v>
       </c>
-      <c r="K33" s="27" t="str">
+      <c r="K33" s="21" t="str">
         <f>F33</f>
         <v>Co-wt</v>
       </c>
-      <c r="L33" s="27" t="str">
+      <c r="L33" s="21" t="str">
         <f>E33</f>
         <v>Ct-wt</v>
       </c>
-      <c r="M33" s="27" t="str">
+      <c r="M33" s="21" t="str">
         <f>D33</f>
         <v>Cp-wt2</v>
       </c>
-      <c r="N33" s="27" t="str">
+      <c r="N33" s="21" t="str">
         <f>C33</f>
         <v>Cp-wt1</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="26" t="str">
+      <c r="C34" s="20" t="str">
         <f t="array" ref="C34:H34">TRANSPOSE(C15:C20)</f>
         <v>Cp-MDR</v>
       </c>
-      <c r="D34" s="26" t="str">
+      <c r="D34" s="20" t="str">
         <v>Cal-wt</v>
       </c>
-      <c r="E34" s="26" t="str">
+      <c r="E34" s="20" t="str">
         <v>Cg-wt1</v>
       </c>
-      <c r="F34" s="26" t="str">
+      <c r="F34" s="20" t="str">
         <v>Cg-wt2</v>
       </c>
-      <c r="G34" s="26" t="str">
+      <c r="G34" s="20" t="str">
         <v>Cp-wt1</v>
       </c>
-      <c r="H34" s="26" t="str">
+      <c r="H34" s="20" t="str">
         <v>Cp-wt2</v>
       </c>
-      <c r="I34" s="27" t="str">
+      <c r="I34" s="21" t="str">
         <f>H34</f>
         <v>Cp-wt2</v>
       </c>
-      <c r="J34" s="27" t="str">
+      <c r="J34" s="21" t="str">
         <f>G34</f>
         <v>Cp-wt1</v>
       </c>
-      <c r="K34" s="27" t="str">
+      <c r="K34" s="21" t="str">
         <f>F34</f>
         <v>Cg-wt2</v>
       </c>
-      <c r="L34" s="27" t="str">
+      <c r="L34" s="21" t="str">
         <f>E34</f>
         <v>Cg-wt1</v>
       </c>
-      <c r="M34" s="27" t="str">
+      <c r="M34" s="21" t="str">
         <f>D34</f>
         <v>Cal-wt</v>
       </c>
-      <c r="N34" s="27" t="str">
+      <c r="N34" s="21" t="str">
         <f>C34</f>
         <v>Cp-MDR</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="26" t="str">
+      <c r="C35" s="20" t="str">
         <f t="array" ref="C35:H35">TRANSPOSE(C21:C26)</f>
         <v>Ct-wt</v>
       </c>
-      <c r="D35" s="26" t="str">
+      <c r="D35" s="20" t="str">
         <v>Co-wt</v>
       </c>
-      <c r="E35" s="26" t="str">
+      <c r="E35" s="20" t="str">
         <v>Cg-MDR1</v>
       </c>
-      <c r="F35" s="26" t="str">
+      <c r="F35" s="20" t="str">
         <v>Cg-MDR2</v>
       </c>
-      <c r="G35" s="26" t="str">
+      <c r="G35" s="20" t="str">
         <v>Cp-MDR</v>
       </c>
-      <c r="H35" s="24" t="str">
+      <c r="H35" s="18" t="str">
         <v>Pool</v>
       </c>
-      <c r="I35" s="24" t="str">
+      <c r="I35" s="18" t="str">
         <f>H35</f>
         <v>Pool</v>
       </c>
-      <c r="J35" s="27" t="str">
+      <c r="J35" s="21" t="str">
         <f>G35</f>
         <v>Cp-MDR</v>
       </c>
-      <c r="K35" s="27" t="str">
+      <c r="K35" s="21" t="str">
         <f>F35</f>
         <v>Cg-MDR2</v>
       </c>
-      <c r="L35" s="27" t="str">
+      <c r="L35" s="21" t="str">
         <f>E35</f>
         <v>Cg-MDR1</v>
       </c>
-      <c r="M35" s="27" t="str">
+      <c r="M35" s="21" t="str">
         <f>D35</f>
         <v>Co-wt</v>
       </c>
-      <c r="N35" s="27" t="str">
+      <c r="N35" s="21" t="str">
         <f>C35</f>
         <v>Ct-wt</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="27" t="str">
+      <c r="C36" s="21" t="str">
         <f t="shared" ref="C36:H39" si="0">I32</f>
         <v>Cg-wt2</v>
       </c>
-      <c r="D36" s="27" t="str">
+      <c r="D36" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cg-wt1</v>
       </c>
-      <c r="E36" s="27" t="str">
+      <c r="E36" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cal-wt</v>
       </c>
-      <c r="F36" s="27" t="str">
+      <c r="F36" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ATCC 22019</v>
       </c>
-      <c r="G36" s="25" t="str">
+      <c r="G36" s="19" t="str">
         <f t="shared" si="0"/>
         <v>H20</v>
       </c>
-      <c r="H36" s="24" t="str">
+      <c r="H36" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Pool</v>
       </c>
-      <c r="I36" s="24" t="str">
+      <c r="I36" s="18" t="str">
         <f t="shared" ref="I36:N39" si="1">C32</f>
         <v>Pool</v>
       </c>
-      <c r="J36" s="25" t="str">
+      <c r="J36" s="19" t="str">
         <f t="shared" si="1"/>
         <v>H20</v>
       </c>
-      <c r="K36" s="26" t="str">
+      <c r="K36" s="20" t="str">
         <f t="shared" si="1"/>
         <v>ATCC 22019</v>
       </c>
-      <c r="L36" s="26" t="str">
+      <c r="L36" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cal-wt</v>
       </c>
-      <c r="M36" s="26" t="str">
+      <c r="M36" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cg-wt1</v>
       </c>
-      <c r="N36" s="26" t="str">
+      <c r="N36" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cg-wt2</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="27" t="str">
+      <c r="C37" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cg-MDR2</v>
       </c>
-      <c r="D37" s="27" t="str">
+      <c r="D37" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cg-MDR1</v>
       </c>
-      <c r="E37" s="27" t="str">
+      <c r="E37" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Co-wt</v>
       </c>
-      <c r="F37" s="27" t="str">
+      <c r="F37" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Ct-wt</v>
       </c>
-      <c r="G37" s="27" t="str">
+      <c r="G37" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cp-wt2</v>
       </c>
-      <c r="H37" s="27" t="str">
+      <c r="H37" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cp-wt1</v>
       </c>
-      <c r="I37" s="26" t="str">
+      <c r="I37" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cp-wt1</v>
       </c>
-      <c r="J37" s="26" t="str">
+      <c r="J37" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cp-wt2</v>
       </c>
-      <c r="K37" s="26" t="str">
+      <c r="K37" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Ct-wt</v>
       </c>
-      <c r="L37" s="26" t="str">
+      <c r="L37" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Co-wt</v>
       </c>
-      <c r="M37" s="26" t="str">
+      <c r="M37" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cg-MDR1</v>
       </c>
-      <c r="N37" s="26" t="str">
+      <c r="N37" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cg-MDR2</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="27" t="str">
+      <c r="C38" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cp-wt2</v>
       </c>
-      <c r="D38" s="27" t="str">
+      <c r="D38" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cp-wt1</v>
       </c>
-      <c r="E38" s="27" t="str">
+      <c r="E38" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cg-wt2</v>
       </c>
-      <c r="F38" s="27" t="str">
+      <c r="F38" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cg-wt1</v>
       </c>
-      <c r="G38" s="27" t="str">
+      <c r="G38" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cal-wt</v>
       </c>
-      <c r="H38" s="27" t="str">
+      <c r="H38" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cp-MDR</v>
       </c>
-      <c r="I38" s="26" t="str">
+      <c r="I38" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cp-MDR</v>
       </c>
-      <c r="J38" s="26" t="str">
+      <c r="J38" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cal-wt</v>
       </c>
-      <c r="K38" s="26" t="str">
+      <c r="K38" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cg-wt1</v>
       </c>
-      <c r="L38" s="26" t="str">
+      <c r="L38" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cg-wt2</v>
       </c>
-      <c r="M38" s="26" t="str">
+      <c r="M38" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cp-wt1</v>
       </c>
-      <c r="N38" s="26" t="str">
+      <c r="N38" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cp-wt2</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="24" t="str">
+      <c r="C39" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Pool</v>
       </c>
-      <c r="D39" s="27" t="str">
+      <c r="D39" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cp-MDR</v>
       </c>
-      <c r="E39" s="27" t="str">
+      <c r="E39" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cg-MDR2</v>
       </c>
-      <c r="F39" s="27" t="str">
+      <c r="F39" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cg-MDR1</v>
       </c>
-      <c r="G39" s="27" t="str">
+      <c r="G39" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Co-wt</v>
       </c>
-      <c r="H39" s="27" t="str">
+      <c r="H39" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Ct-wt</v>
       </c>
-      <c r="I39" s="26" t="str">
+      <c r="I39" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Ct-wt</v>
       </c>
-      <c r="J39" s="26" t="str">
+      <c r="J39" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Co-wt</v>
       </c>
-      <c r="K39" s="26" t="str">
+      <c r="K39" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cg-MDR1</v>
       </c>
-      <c r="L39" s="26" t="str">
+      <c r="L39" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cg-MDR2</v>
       </c>
-      <c r="M39" s="26" t="str">
+      <c r="M39" s="20" t="str">
         <f t="shared" si="1"/>
         <v>Cp-MDR</v>
       </c>
-      <c r="N39" s="24" t="str">
+      <c r="N39" s="18" t="str">
         <f t="shared" si="1"/>
         <v>Pool</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
     </row>
     <row r="49" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="F49" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G49" s="28" t="s">
+      <c r="G49" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="28" t="s">
+      <c r="H49" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="50" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="9">
         <v>2</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="9">
         <v>1</v>
       </c>
-      <c r="J50" s="29"/>
-      <c r="K50" s="1" t="s">
+      <c r="J50" s="23"/>
+      <c r="K50" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
     </row>
     <row r="51" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="9">
         <v>1</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H51" s="15">
-        <v>1</v>
+      <c r="H51" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
     </row>
     <row r="64" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
     </row>
     <row r="65" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
     </row>
     <row r="66" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
     </row>
     <row r="67" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
     </row>
     <row r="68" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
     </row>
     <row r="69" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
     </row>
     <row r="70" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
     </row>
     <row r="71" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
     </row>
     <row r="72" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
     </row>
     <row r="73" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
     </row>
     <row r="74" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
     </row>
     <row r="75" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
     </row>
     <row r="76" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
     </row>
     <row r="77" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
     </row>
     <row r="78" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
     </row>
     <row r="79" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
     </row>
     <row r="80" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
     </row>
     <row r="81" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
     </row>
     <row r="82" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
     </row>
     <row r="83" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
     </row>
     <row r="84" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
     </row>
     <row r="85" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
     </row>
     <row r="86" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
     </row>
     <row r="87" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
     </row>
     <row r="88" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
     </row>
     <row r="89" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
     </row>
     <row r="90" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
     </row>
     <row r="91" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
     </row>
     <row r="92" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
     </row>
     <row r="93" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
     </row>
     <row r="94" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
     </row>
     <row r="95" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
     </row>
     <row r="96" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
     </row>
     <row r="97" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
     </row>
     <row r="98" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
     </row>
     <row r="99" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
     </row>
     <row r="100" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
     </row>
     <row r="101" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
     </row>
     <row r="102" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
     </row>
     <row r="103" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
     </row>
     <row r="104" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
     </row>
     <row r="105" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
     </row>
     <row r="106" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
     </row>
     <row r="107" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
     </row>
     <row r="108" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
     </row>
     <row r="109" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
     </row>
     <row r="110" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
     </row>
     <row r="111" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
     </row>
     <row r="112" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
     </row>
     <row r="113" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
     </row>
     <row r="114" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
     </row>
     <row r="115" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
     </row>
     <row r="116" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
     </row>
     <row r="117" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
     </row>
     <row r="118" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
     </row>
     <row r="119" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
     </row>
     <row r="120" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
     </row>
     <row r="121" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
     </row>
     <row r="122" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
     </row>
     <row r="123" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
     </row>
     <row r="124" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
     </row>
     <row r="125" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
     </row>
     <row r="126" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
     </row>
     <row r="127" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
     </row>
     <row r="128" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
     </row>
     <row r="129" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
     </row>
     <row r="130" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
     </row>
     <row r="131" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
     </row>
     <row r="132" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
     </row>
     <row r="133" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
     </row>
     <row r="134" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
     </row>
     <row r="135" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
     </row>
     <row r="136" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
     </row>
     <row r="137" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
     </row>
     <row r="138" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
     </row>
     <row r="139" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
     </row>
     <row r="140" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
     </row>
     <row r="141" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
     </row>
     <row r="142" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E142" s="15"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="15"/>
-      <c r="H142" s="15"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
     </row>
     <row r="143" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E143" s="15"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
     </row>
     <row r="144" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
     </row>
     <row r="145" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E145" s="15"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
     </row>
     <row r="146" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
     </row>
     <row r="147" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
     </row>
     <row r="148" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
     </row>
     <row r="149" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
     </row>
     <row r="150" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="15"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
     </row>
     <row r="151" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="15"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
     </row>
     <row r="152" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
     </row>
     <row r="153" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
     </row>
     <row r="154" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="15"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
     </row>
     <row r="155" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E155" s="15"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="15"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
     </row>
     <row r="156" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="15"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
     </row>
     <row r="157" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="15"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
     </row>
     <row r="158" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="15"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
     </row>
     <row r="159" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E159" s="15"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="15"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
     </row>
     <row r="160" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="15"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
     </row>
     <row r="161" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E161" s="15"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="15"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
     </row>
     <row r="162" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E162" s="15"/>
-      <c r="F162" s="15"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="15"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
     </row>
     <row r="163" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E163" s="15"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="15"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
     </row>
     <row r="164" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E164" s="15"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="15"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
     </row>
     <row r="165" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E165" s="15"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="15"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
     </row>
     <row r="166" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E166" s="15"/>
-      <c r="F166" s="15"/>
-      <c r="G166" s="15"/>
-      <c r="H166" s="15"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
     </row>
     <row r="167" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="15"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
     </row>
     <row r="168" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E168" s="15"/>
-      <c r="F168" s="15"/>
-      <c r="G168" s="15"/>
-      <c r="H168" s="15"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
     </row>
     <row r="169" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E169" s="15"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="15"/>
-      <c r="H169" s="15"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
     </row>
     <row r="170" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E170" s="15"/>
-      <c r="F170" s="15"/>
-      <c r="G170" s="15"/>
-      <c r="H170" s="15"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
     </row>
     <row r="171" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E171" s="15"/>
-      <c r="F171" s="15"/>
-      <c r="G171" s="15"/>
-      <c r="H171" s="15"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
     </row>
     <row r="172" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E172" s="15"/>
-      <c r="F172" s="15"/>
-      <c r="G172" s="15"/>
-      <c r="H172" s="15"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
     </row>
     <row r="173" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E173" s="15"/>
-      <c r="F173" s="15"/>
-      <c r="G173" s="15"/>
-      <c r="H173" s="15"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
     </row>
     <row r="174" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E174" s="15"/>
-      <c r="F174" s="15"/>
-      <c r="G174" s="15"/>
-      <c r="H174" s="15"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
     </row>
     <row r="175" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E175" s="15"/>
-      <c r="F175" s="15"/>
-      <c r="G175" s="15"/>
-      <c r="H175" s="15"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
     </row>
     <row r="176" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E176" s="15"/>
-      <c r="F176" s="15"/>
-      <c r="G176" s="15"/>
-      <c r="H176" s="15"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
     </row>
     <row r="177" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E177" s="15"/>
-      <c r="F177" s="15"/>
-      <c r="G177" s="15"/>
-      <c r="H177" s="15"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
     </row>
     <row r="178" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E178" s="15"/>
-      <c r="F178" s="15"/>
-      <c r="G178" s="15"/>
-      <c r="H178" s="15"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
     </row>
     <row r="179" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E179" s="15"/>
-      <c r="F179" s="15"/>
-      <c r="G179" s="15"/>
-      <c r="H179" s="15"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
     </row>
     <row r="180" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E180" s="15"/>
-      <c r="F180" s="15"/>
-      <c r="G180" s="15"/>
-      <c r="H180" s="15"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
     </row>
     <row r="181" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E181" s="15"/>
-      <c r="F181" s="15"/>
-      <c r="G181" s="15"/>
-      <c r="H181" s="15"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
     </row>
     <row r="182" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E182" s="15"/>
-      <c r="F182" s="15"/>
-      <c r="G182" s="15"/>
-      <c r="H182" s="15"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
     </row>
     <row r="183" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E183" s="15"/>
-      <c r="F183" s="15"/>
-      <c r="G183" s="15"/>
-      <c r="H183" s="15"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
     </row>
     <row r="184" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E184" s="15"/>
-      <c r="F184" s="15"/>
-      <c r="G184" s="15"/>
-      <c r="H184" s="15"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
     </row>
     <row r="185" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E185" s="15"/>
-      <c r="F185" s="15"/>
-      <c r="G185" s="15"/>
-      <c r="H185" s="15"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="9"/>
     </row>
     <row r="186" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E186" s="15"/>
-      <c r="F186" s="15"/>
-      <c r="G186" s="15"/>
-      <c r="H186" s="15"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="9"/>
     </row>
     <row r="187" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E187" s="15"/>
-      <c r="F187" s="15"/>
-      <c r="G187" s="15"/>
-      <c r="H187" s="15"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
     </row>
     <row r="188" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E188" s="15"/>
-      <c r="F188" s="15"/>
-      <c r="G188" s="15"/>
-      <c r="H188" s="15"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
     </row>
     <row r="189" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E189" s="15"/>
-      <c r="F189" s="15"/>
-      <c r="G189" s="15"/>
-      <c r="H189" s="15"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="9"/>
     </row>
     <row r="190" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E190" s="15"/>
-      <c r="F190" s="15"/>
-      <c r="G190" s="15"/>
-      <c r="H190" s="15"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
     </row>
     <row r="191" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E191" s="15"/>
-      <c r="F191" s="15"/>
-      <c r="G191" s="15"/>
-      <c r="H191" s="15"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="9"/>
     </row>
     <row r="192" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E192" s="15"/>
-      <c r="F192" s="15"/>
-      <c r="G192" s="15"/>
-      <c r="H192" s="15"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="9"/>
     </row>
     <row r="193" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E193" s="15"/>
-      <c r="F193" s="15"/>
-      <c r="G193" s="15"/>
-      <c r="H193" s="15"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="9"/>
     </row>
     <row r="194" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E194" s="15"/>
-      <c r="F194" s="15"/>
-      <c r="G194" s="15"/>
-      <c r="H194" s="15"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="9"/>
     </row>
     <row r="195" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E195" s="15"/>
-      <c r="F195" s="15"/>
-      <c r="G195" s="15"/>
-      <c r="H195" s="15"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="9"/>
     </row>
     <row r="196" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E196" s="15"/>
-      <c r="F196" s="15"/>
-      <c r="G196" s="15"/>
-      <c r="H196" s="15"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="9"/>
     </row>
     <row r="197" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E197" s="15"/>
-      <c r="F197" s="15"/>
-      <c r="G197" s="15"/>
-      <c r="H197" s="15"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="9"/>
     </row>
     <row r="198" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E198" s="15"/>
-      <c r="F198" s="15"/>
-      <c r="G198" s="15"/>
-      <c r="H198" s="15"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="9"/>
     </row>
     <row r="199" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E199" s="15"/>
-      <c r="F199" s="15"/>
-      <c r="G199" s="15"/>
-      <c r="H199" s="15"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+      <c r="H199" s="9"/>
     </row>
     <row r="200" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E200" s="15"/>
-      <c r="F200" s="15"/>
-      <c r="G200" s="15"/>
-      <c r="H200" s="15"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="9"/>
     </row>
     <row r="201" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E201" s="15"/>
-      <c r="F201" s="15"/>
-      <c r="G201" s="15"/>
-      <c r="H201" s="15"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="9"/>
+      <c r="H201" s="9"/>
     </row>
     <row r="202" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E202" s="15"/>
-      <c r="F202" s="15"/>
-      <c r="G202" s="15"/>
-      <c r="H202" s="15"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="9"/>
+      <c r="G202" s="9"/>
+      <c r="H202" s="9"/>
     </row>
     <row r="203" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E203" s="15"/>
-      <c r="F203" s="15"/>
-      <c r="G203" s="15"/>
-      <c r="H203" s="15"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="9"/>
+      <c r="H203" s="9"/>
     </row>
     <row r="204" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E204" s="15"/>
-      <c r="F204" s="15"/>
-      <c r="G204" s="15"/>
-      <c r="H204" s="15"/>
+      <c r="E204" s="9"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="9"/>
     </row>
     <row r="205" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E205" s="15"/>
-      <c r="F205" s="15"/>
-      <c r="G205" s="15"/>
-      <c r="H205" s="15"/>
+      <c r="E205" s="9"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="9"/>
+      <c r="H205" s="9"/>
     </row>
     <row r="206" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E206" s="15"/>
-      <c r="F206" s="15"/>
-      <c r="G206" s="15"/>
-      <c r="H206" s="15"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="9"/>
+      <c r="H206" s="9"/>
     </row>
     <row r="207" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E207" s="15"/>
-      <c r="F207" s="15"/>
-      <c r="G207" s="15"/>
-      <c r="H207" s="15"/>
+      <c r="E207" s="9"/>
+      <c r="F207" s="9"/>
+      <c r="G207" s="9"/>
+      <c r="H207" s="9"/>
     </row>
     <row r="208" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E208" s="15"/>
-      <c r="F208" s="15"/>
-      <c r="G208" s="15"/>
-      <c r="H208" s="15"/>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="9"/>
     </row>
     <row r="209" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E209" s="15"/>
-      <c r="F209" s="15"/>
-      <c r="G209" s="15"/>
-      <c r="H209" s="15"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="9"/>
+      <c r="G209" s="9"/>
+      <c r="H209" s="9"/>
     </row>
     <row r="210" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E210" s="15"/>
-      <c r="F210" s="15"/>
-      <c r="G210" s="15"/>
-      <c r="H210" s="15"/>
+      <c r="E210" s="9"/>
+      <c r="F210" s="9"/>
+      <c r="G210" s="9"/>
+      <c r="H210" s="9"/>
     </row>
     <row r="211" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E211" s="15"/>
-      <c r="F211" s="15"/>
-      <c r="G211" s="15"/>
-      <c r="H211" s="15"/>
+      <c r="E211" s="9"/>
+      <c r="F211" s="9"/>
+      <c r="G211" s="9"/>
+      <c r="H211" s="9"/>
     </row>
     <row r="212" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E212" s="15"/>
-      <c r="F212" s="15"/>
-      <c r="G212" s="15"/>
-      <c r="H212" s="15"/>
+      <c r="E212" s="9"/>
+      <c r="F212" s="9"/>
+      <c r="G212" s="9"/>
+      <c r="H212" s="9"/>
     </row>
     <row r="213" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E213" s="15"/>
-      <c r="F213" s="15"/>
-      <c r="G213" s="15"/>
-      <c r="H213" s="15"/>
+      <c r="E213" s="9"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="9"/>
+      <c r="H213" s="9"/>
     </row>
     <row r="214" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E214" s="15"/>
-      <c r="F214" s="15"/>
-      <c r="G214" s="15"/>
-      <c r="H214" s="15"/>
+      <c r="E214" s="9"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="9"/>
     </row>
     <row r="215" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E215" s="15"/>
-      <c r="F215" s="15"/>
-      <c r="G215" s="15"/>
-      <c r="H215" s="15"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="9"/>
     </row>
     <row r="216" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E216" s="15"/>
-      <c r="F216" s="15"/>
-      <c r="G216" s="15"/>
-      <c r="H216" s="15"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="9"/>
     </row>
     <row r="217" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E217" s="15"/>
-      <c r="F217" s="15"/>
-      <c r="G217" s="15"/>
-      <c r="H217" s="15"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="9"/>
+      <c r="G217" s="9"/>
+      <c r="H217" s="9"/>
     </row>
     <row r="218" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E218" s="15"/>
-      <c r="F218" s="15"/>
-      <c r="G218" s="15"/>
-      <c r="H218" s="15"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="9"/>
     </row>
     <row r="219" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E219" s="15"/>
-      <c r="F219" s="15"/>
-      <c r="G219" s="15"/>
-      <c r="H219" s="15"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="9"/>
+      <c r="G219" s="9"/>
+      <c r="H219" s="9"/>
     </row>
     <row r="220" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E220" s="15"/>
-      <c r="F220" s="15"/>
-      <c r="G220" s="15"/>
-      <c r="H220" s="15"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="9"/>
+      <c r="G220" s="9"/>
+      <c r="H220" s="9"/>
     </row>
     <row r="221" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E221" s="15"/>
-      <c r="F221" s="15"/>
-      <c r="G221" s="15"/>
-      <c r="H221" s="15"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="9"/>
     </row>
     <row r="222" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E222" s="15"/>
-      <c r="F222" s="15"/>
-      <c r="G222" s="15"/>
-      <c r="H222" s="15"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="9"/>
+      <c r="G222" s="9"/>
+      <c r="H222" s="9"/>
     </row>
     <row r="223" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E223" s="15"/>
-      <c r="F223" s="15"/>
-      <c r="G223" s="15"/>
-      <c r="H223" s="15"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="9"/>
+      <c r="G223" s="9"/>
+      <c r="H223" s="9"/>
     </row>
     <row r="224" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E224" s="15"/>
-      <c r="F224" s="15"/>
-      <c r="G224" s="15"/>
-      <c r="H224" s="15"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="9"/>
+      <c r="G224" s="9"/>
+      <c r="H224" s="9"/>
     </row>
     <row r="225" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E225" s="15"/>
-      <c r="F225" s="15"/>
-      <c r="G225" s="15"/>
-      <c r="H225" s="15"/>
+      <c r="E225" s="9"/>
+      <c r="F225" s="9"/>
+      <c r="G225" s="9"/>
+      <c r="H225" s="9"/>
     </row>
     <row r="226" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E226" s="15"/>
-      <c r="F226" s="15"/>
-      <c r="G226" s="15"/>
-      <c r="H226" s="15"/>
+      <c r="E226" s="9"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="9"/>
+      <c r="H226" s="9"/>
     </row>
     <row r="227" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E227" s="15"/>
-      <c r="F227" s="15"/>
-      <c r="G227" s="15"/>
-      <c r="H227" s="15"/>
+      <c r="E227" s="9"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="9"/>
+      <c r="H227" s="9"/>
     </row>
     <row r="228" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E228" s="15"/>
-      <c r="F228" s="15"/>
-      <c r="G228" s="15"/>
-      <c r="H228" s="15"/>
+      <c r="E228" s="9"/>
+      <c r="F228" s="9"/>
+      <c r="G228" s="9"/>
+      <c r="H228" s="9"/>
     </row>
     <row r="229" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E229" s="15"/>
-      <c r="F229" s="15"/>
-      <c r="G229" s="15"/>
-      <c r="H229" s="15"/>
+      <c r="E229" s="9"/>
+      <c r="F229" s="9"/>
+      <c r="G229" s="9"/>
+      <c r="H229" s="9"/>
     </row>
     <row r="230" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E230" s="15"/>
-      <c r="F230" s="15"/>
-      <c r="G230" s="15"/>
-      <c r="H230" s="15"/>
+      <c r="E230" s="9"/>
+      <c r="F230" s="9"/>
+      <c r="G230" s="9"/>
+      <c r="H230" s="9"/>
     </row>
     <row r="231" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E231" s="15"/>
-      <c r="F231" s="15"/>
-      <c r="G231" s="15"/>
-      <c r="H231" s="15"/>
+      <c r="E231" s="9"/>
+      <c r="F231" s="9"/>
+      <c r="G231" s="9"/>
+      <c r="H231" s="9"/>
     </row>
     <row r="232" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E232" s="15"/>
-      <c r="F232" s="15"/>
-      <c r="G232" s="15"/>
-      <c r="H232" s="15"/>
+      <c r="E232" s="9"/>
+      <c r="F232" s="9"/>
+      <c r="G232" s="9"/>
+      <c r="H232" s="9"/>
     </row>
     <row r="233" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E233" s="15"/>
-      <c r="F233" s="15"/>
-      <c r="G233" s="15"/>
-      <c r="H233" s="15"/>
+      <c r="E233" s="9"/>
+      <c r="F233" s="9"/>
+      <c r="G233" s="9"/>
+      <c r="H233" s="9"/>
     </row>
     <row r="234" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E234" s="15"/>
-      <c r="F234" s="15"/>
-      <c r="G234" s="15"/>
-      <c r="H234" s="15"/>
+      <c r="E234" s="9"/>
+      <c r="F234" s="9"/>
+      <c r="G234" s="9"/>
+      <c r="H234" s="9"/>
     </row>
     <row r="235" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E235" s="15"/>
-      <c r="F235" s="15"/>
-      <c r="G235" s="15"/>
-      <c r="H235" s="15"/>
+      <c r="E235" s="9"/>
+      <c r="F235" s="9"/>
+      <c r="G235" s="9"/>
+      <c r="H235" s="9"/>
     </row>
     <row r="236" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E236" s="15"/>
-      <c r="F236" s="15"/>
-      <c r="G236" s="15"/>
-      <c r="H236" s="15"/>
+      <c r="E236" s="9"/>
+      <c r="F236" s="9"/>
+      <c r="G236" s="9"/>
+      <c r="H236" s="9"/>
     </row>
     <row r="237" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E237" s="15"/>
-      <c r="F237" s="15"/>
-      <c r="G237" s="15"/>
-      <c r="H237" s="15"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9"/>
+      <c r="H237" s="9"/>
     </row>
     <row r="238" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E238" s="15"/>
-      <c r="F238" s="15"/>
-      <c r="G238" s="15"/>
-      <c r="H238" s="15"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="9"/>
     </row>
     <row r="239" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E239" s="15"/>
-      <c r="F239" s="15"/>
-      <c r="G239" s="15"/>
-      <c r="H239" s="15"/>
+      <c r="E239" s="9"/>
+      <c r="F239" s="9"/>
+      <c r="G239" s="9"/>
+      <c r="H239" s="9"/>
     </row>
     <row r="240" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E240" s="15"/>
-      <c r="F240" s="15"/>
-      <c r="G240" s="15"/>
-      <c r="H240" s="15"/>
+      <c r="E240" s="9"/>
+      <c r="F240" s="9"/>
+      <c r="G240" s="9"/>
+      <c r="H240" s="9"/>
     </row>
     <row r="241" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E241" s="15"/>
-      <c r="F241" s="15"/>
-      <c r="G241" s="15"/>
-      <c r="H241" s="15"/>
+      <c r="E241" s="9"/>
+      <c r="F241" s="9"/>
+      <c r="G241" s="9"/>
+      <c r="H241" s="9"/>
     </row>
     <row r="242" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E242" s="15"/>
-      <c r="F242" s="15"/>
-      <c r="G242" s="15"/>
-      <c r="H242" s="15"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="9"/>
+      <c r="G242" s="9"/>
+      <c r="H242" s="9"/>
     </row>
     <row r="243" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E243" s="15"/>
-      <c r="F243" s="15"/>
-      <c r="G243" s="15"/>
-      <c r="H243" s="15"/>
+      <c r="E243" s="9"/>
+      <c r="F243" s="9"/>
+      <c r="G243" s="9"/>
+      <c r="H243" s="9"/>
     </row>
     <row r="244" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E244" s="15"/>
-      <c r="F244" s="15"/>
-      <c r="G244" s="15"/>
-      <c r="H244" s="15"/>
+      <c r="E244" s="9"/>
+      <c r="F244" s="9"/>
+      <c r="G244" s="9"/>
+      <c r="H244" s="9"/>
     </row>
     <row r="245" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E245" s="15"/>
-      <c r="F245" s="15"/>
-      <c r="G245" s="15"/>
-      <c r="H245" s="15"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="9"/>
+      <c r="G245" s="9"/>
+      <c r="H245" s="9"/>
     </row>
     <row r="246" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E246" s="15"/>
-      <c r="F246" s="15"/>
-      <c r="G246" s="15"/>
-      <c r="H246" s="15"/>
+      <c r="E246" s="9"/>
+      <c r="F246" s="9"/>
+      <c r="G246" s="9"/>
+      <c r="H246" s="9"/>
     </row>
     <row r="247" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E247" s="15"/>
-      <c r="F247" s="15"/>
-      <c r="G247" s="15"/>
-      <c r="H247" s="15"/>
+      <c r="E247" s="9"/>
+      <c r="F247" s="9"/>
+      <c r="G247" s="9"/>
+      <c r="H247" s="9"/>
     </row>
     <row r="248" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E248" s="15"/>
-      <c r="F248" s="15"/>
-      <c r="G248" s="15"/>
-      <c r="H248" s="15"/>
+      <c r="E248" s="9"/>
+      <c r="F248" s="9"/>
+      <c r="G248" s="9"/>
+      <c r="H248" s="9"/>
     </row>
     <row r="249" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E249" s="15"/>
-      <c r="F249" s="15"/>
-      <c r="G249" s="15"/>
-      <c r="H249" s="15"/>
+      <c r="E249" s="9"/>
+      <c r="F249" s="9"/>
+      <c r="G249" s="9"/>
+      <c r="H249" s="9"/>
     </row>
     <row r="250" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E250" s="15"/>
-      <c r="F250" s="15"/>
-      <c r="G250" s="15"/>
-      <c r="H250" s="15"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="9"/>
+      <c r="G250" s="9"/>
+      <c r="H250" s="9"/>
     </row>
     <row r="251" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E251" s="15"/>
-      <c r="F251" s="15"/>
-      <c r="G251" s="15"/>
-      <c r="H251" s="15"/>
+      <c r="E251" s="9"/>
+      <c r="F251" s="9"/>
+      <c r="G251" s="9"/>
+      <c r="H251" s="9"/>
     </row>
     <row r="252" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E252" s="15"/>
-      <c r="F252" s="15"/>
-      <c r="G252" s="15"/>
-      <c r="H252" s="15"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="9"/>
+      <c r="G252" s="9"/>
+      <c r="H252" s="9"/>
     </row>
     <row r="253" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E253" s="15"/>
-      <c r="F253" s="15"/>
-      <c r="G253" s="15"/>
-      <c r="H253" s="15"/>
+      <c r="E253" s="9"/>
+      <c r="F253" s="9"/>
+      <c r="G253" s="9"/>
+      <c r="H253" s="9"/>
     </row>
     <row r="254" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E254" s="15"/>
-      <c r="F254" s="15"/>
-      <c r="G254" s="15"/>
-      <c r="H254" s="15"/>
+      <c r="E254" s="9"/>
+      <c r="F254" s="9"/>
+      <c r="G254" s="9"/>
+      <c r="H254" s="9"/>
     </row>
     <row r="255" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E255" s="15"/>
-      <c r="F255" s="15"/>
-      <c r="G255" s="15"/>
-      <c r="H255" s="15"/>
+      <c r="E255" s="9"/>
+      <c r="F255" s="9"/>
+      <c r="G255" s="9"/>
+      <c r="H255" s="9"/>
     </row>
     <row r="256" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E256" s="15"/>
-      <c r="F256" s="15"/>
-      <c r="G256" s="15"/>
-      <c r="H256" s="15"/>
+      <c r="E256" s="9"/>
+      <c r="F256" s="9"/>
+      <c r="G256" s="9"/>
+      <c r="H256" s="9"/>
     </row>
     <row r="257" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E257" s="15"/>
-      <c r="F257" s="15"/>
-      <c r="G257" s="15"/>
-      <c r="H257" s="15"/>
+      <c r="E257" s="9"/>
+      <c r="F257" s="9"/>
+      <c r="G257" s="9"/>
+      <c r="H257" s="9"/>
     </row>
     <row r="258" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E258" s="15"/>
-      <c r="F258" s="15"/>
-      <c r="G258" s="15"/>
-      <c r="H258" s="15"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="9"/>
+      <c r="G258" s="9"/>
+      <c r="H258" s="9"/>
     </row>
     <row r="259" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E259" s="15"/>
-      <c r="F259" s="15"/>
-      <c r="G259" s="15"/>
-      <c r="H259" s="15"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="9"/>
+      <c r="G259" s="9"/>
+      <c r="H259" s="9"/>
     </row>
     <row r="260" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E260" s="15"/>
-      <c r="F260" s="15"/>
-      <c r="G260" s="15"/>
-      <c r="H260" s="15"/>
+      <c r="E260" s="9"/>
+      <c r="F260" s="9"/>
+      <c r="G260" s="9"/>
+      <c r="H260" s="9"/>
     </row>
     <row r="261" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E261" s="15"/>
-      <c r="F261" s="15"/>
-      <c r="G261" s="15"/>
-      <c r="H261" s="15"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="9"/>
+      <c r="G261" s="9"/>
+      <c r="H261" s="9"/>
     </row>
     <row r="262" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E262" s="15"/>
-      <c r="F262" s="15"/>
-      <c r="G262" s="15"/>
-      <c r="H262" s="15"/>
+      <c r="E262" s="9"/>
+      <c r="F262" s="9"/>
+      <c r="G262" s="9"/>
+      <c r="H262" s="9"/>
     </row>
     <row r="263" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E263" s="15"/>
-      <c r="F263" s="15"/>
-      <c r="G263" s="15"/>
-      <c r="H263" s="15"/>
+      <c r="E263" s="9"/>
+      <c r="F263" s="9"/>
+      <c r="G263" s="9"/>
+      <c r="H263" s="9"/>
     </row>
     <row r="264" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E264" s="15"/>
-      <c r="F264" s="15"/>
-      <c r="G264" s="15"/>
-      <c r="H264" s="15"/>
+      <c r="E264" s="9"/>
+      <c r="F264" s="9"/>
+      <c r="G264" s="9"/>
+      <c r="H264" s="9"/>
     </row>
     <row r="265" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E265" s="15"/>
-      <c r="F265" s="15"/>
-      <c r="G265" s="15"/>
-      <c r="H265" s="15"/>
+      <c r="E265" s="9"/>
+      <c r="F265" s="9"/>
+      <c r="G265" s="9"/>
+      <c r="H265" s="9"/>
     </row>
     <row r="266" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E266" s="15"/>
-      <c r="F266" s="15"/>
-      <c r="G266" s="15"/>
-      <c r="H266" s="15"/>
+      <c r="E266" s="9"/>
+      <c r="F266" s="9"/>
+      <c r="G266" s="9"/>
+      <c r="H266" s="9"/>
     </row>
     <row r="267" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E267" s="15"/>
-      <c r="F267" s="15"/>
-      <c r="G267" s="15"/>
-      <c r="H267" s="15"/>
+      <c r="E267" s="9"/>
+      <c r="F267" s="9"/>
+      <c r="G267" s="9"/>
+      <c r="H267" s="9"/>
     </row>
     <row r="268" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E268" s="15"/>
-      <c r="F268" s="15"/>
-      <c r="G268" s="15"/>
-      <c r="H268" s="15"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="9"/>
+      <c r="G268" s="9"/>
+      <c r="H268" s="9"/>
     </row>
     <row r="269" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E269" s="15"/>
-      <c r="F269" s="15"/>
-      <c r="G269" s="15"/>
-      <c r="H269" s="15"/>
+      <c r="E269" s="9"/>
+      <c r="F269" s="9"/>
+      <c r="G269" s="9"/>
+      <c r="H269" s="9"/>
     </row>
     <row r="270" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E270" s="15"/>
-      <c r="F270" s="15"/>
-      <c r="G270" s="15"/>
-      <c r="H270" s="15"/>
+      <c r="E270" s="9"/>
+      <c r="F270" s="9"/>
+      <c r="G270" s="9"/>
+      <c r="H270" s="9"/>
     </row>
     <row r="271" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E271" s="15"/>
-      <c r="F271" s="15"/>
-      <c r="G271" s="15"/>
-      <c r="H271" s="15"/>
+      <c r="E271" s="9"/>
+      <c r="F271" s="9"/>
+      <c r="G271" s="9"/>
+      <c r="H271" s="9"/>
     </row>
     <row r="272" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E272" s="15"/>
-      <c r="F272" s="15"/>
-      <c r="G272" s="15"/>
-      <c r="H272" s="15"/>
+      <c r="E272" s="9"/>
+      <c r="F272" s="9"/>
+      <c r="G272" s="9"/>
+      <c r="H272" s="9"/>
     </row>
     <row r="273" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E273" s="15"/>
-      <c r="F273" s="15"/>
-      <c r="G273" s="15"/>
-      <c r="H273" s="15"/>
+      <c r="E273" s="9"/>
+      <c r="F273" s="9"/>
+      <c r="G273" s="9"/>
+      <c r="H273" s="9"/>
     </row>
     <row r="274" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E274" s="15"/>
-      <c r="F274" s="15"/>
-      <c r="G274" s="15"/>
-      <c r="H274" s="15"/>
+      <c r="E274" s="9"/>
+      <c r="F274" s="9"/>
+      <c r="G274" s="9"/>
+      <c r="H274" s="9"/>
     </row>
     <row r="275" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E275" s="15"/>
-      <c r="F275" s="15"/>
-      <c r="G275" s="15"/>
-      <c r="H275" s="15"/>
+      <c r="E275" s="9"/>
+      <c r="F275" s="9"/>
+      <c r="G275" s="9"/>
+      <c r="H275" s="9"/>
     </row>
     <row r="276" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E276" s="15"/>
-      <c r="F276" s="15"/>
-      <c r="G276" s="15"/>
-      <c r="H276" s="15"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="9"/>
+      <c r="G276" s="9"/>
+      <c r="H276" s="9"/>
     </row>
     <row r="277" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E277" s="15"/>
-      <c r="F277" s="15"/>
-      <c r="G277" s="15"/>
-      <c r="H277" s="15"/>
+      <c r="E277" s="9"/>
+      <c r="F277" s="9"/>
+      <c r="G277" s="9"/>
+      <c r="H277" s="9"/>
     </row>
     <row r="278" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E278" s="15"/>
-      <c r="F278" s="15"/>
-      <c r="G278" s="15"/>
-      <c r="H278" s="15"/>
+      <c r="E278" s="9"/>
+      <c r="F278" s="9"/>
+      <c r="G278" s="9"/>
+      <c r="H278" s="9"/>
     </row>
     <row r="279" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E279" s="15"/>
-      <c r="F279" s="15"/>
-      <c r="G279" s="15"/>
-      <c r="H279" s="15"/>
+      <c r="E279" s="9"/>
+      <c r="F279" s="9"/>
+      <c r="G279" s="9"/>
+      <c r="H279" s="9"/>
     </row>
     <row r="280" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E280" s="15"/>
-      <c r="F280" s="15"/>
-      <c r="G280" s="15"/>
-      <c r="H280" s="15"/>
+      <c r="E280" s="9"/>
+      <c r="F280" s="9"/>
+      <c r="G280" s="9"/>
+      <c r="H280" s="9"/>
     </row>
     <row r="281" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E281" s="15"/>
-      <c r="F281" s="15"/>
-      <c r="G281" s="15"/>
-      <c r="H281" s="15"/>
+      <c r="E281" s="9"/>
+      <c r="F281" s="9"/>
+      <c r="G281" s="9"/>
+      <c r="H281" s="9"/>
     </row>
     <row r="282" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E282" s="15"/>
-      <c r="F282" s="15"/>
-      <c r="G282" s="15"/>
-      <c r="H282" s="15"/>
+      <c r="E282" s="9"/>
+      <c r="F282" s="9"/>
+      <c r="G282" s="9"/>
+      <c r="H282" s="9"/>
     </row>
     <row r="283" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E283" s="15"/>
-      <c r="F283" s="15"/>
-      <c r="G283" s="15"/>
-      <c r="H283" s="15"/>
+      <c r="E283" s="9"/>
+      <c r="F283" s="9"/>
+      <c r="G283" s="9"/>
+      <c r="H283" s="9"/>
     </row>
     <row r="284" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E284" s="15"/>
-      <c r="F284" s="15"/>
-      <c r="G284" s="15"/>
-      <c r="H284" s="15"/>
+      <c r="E284" s="9"/>
+      <c r="F284" s="9"/>
+      <c r="G284" s="9"/>
+      <c r="H284" s="9"/>
     </row>
     <row r="285" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E285" s="15"/>
-      <c r="F285" s="15"/>
-      <c r="G285" s="15"/>
-      <c r="H285" s="15"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="9"/>
+      <c r="G285" s="9"/>
+      <c r="H285" s="9"/>
     </row>
     <row r="286" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E286" s="15"/>
-      <c r="F286" s="15"/>
-      <c r="G286" s="15"/>
-      <c r="H286" s="15"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="9"/>
+      <c r="G286" s="9"/>
+      <c r="H286" s="9"/>
     </row>
     <row r="287" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E287" s="15"/>
-      <c r="F287" s="15"/>
-      <c r="G287" s="15"/>
-      <c r="H287" s="15"/>
+      <c r="E287" s="9"/>
+      <c r="F287" s="9"/>
+      <c r="G287" s="9"/>
+      <c r="H287" s="9"/>
     </row>
     <row r="288" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E288" s="15"/>
-      <c r="F288" s="15"/>
-      <c r="G288" s="15"/>
-      <c r="H288" s="15"/>
+      <c r="E288" s="9"/>
+      <c r="F288" s="9"/>
+      <c r="G288" s="9"/>
+      <c r="H288" s="9"/>
     </row>
     <row r="289" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E289" s="15"/>
-      <c r="F289" s="15"/>
-      <c r="G289" s="15"/>
-      <c r="H289" s="15"/>
+      <c r="E289" s="9"/>
+      <c r="F289" s="9"/>
+      <c r="G289" s="9"/>
+      <c r="H289" s="9"/>
     </row>
     <row r="290" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E290" s="15"/>
-      <c r="F290" s="15"/>
-      <c r="G290" s="15"/>
-      <c r="H290" s="15"/>
+      <c r="E290" s="9"/>
+      <c r="F290" s="9"/>
+      <c r="G290" s="9"/>
+      <c r="H290" s="9"/>
     </row>
     <row r="291" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E291" s="15"/>
-      <c r="F291" s="15"/>
-      <c r="G291" s="15"/>
-      <c r="H291" s="15"/>
+      <c r="E291" s="9"/>
+      <c r="F291" s="9"/>
+      <c r="G291" s="9"/>
+      <c r="H291" s="9"/>
     </row>
     <row r="292" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E292" s="15"/>
-      <c r="F292" s="15"/>
-      <c r="G292" s="15"/>
-      <c r="H292" s="15"/>
+      <c r="E292" s="9"/>
+      <c r="F292" s="9"/>
+      <c r="G292" s="9"/>
+      <c r="H292" s="9"/>
     </row>
     <row r="293" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E293" s="15"/>
-      <c r="F293" s="15"/>
-      <c r="G293" s="15"/>
-      <c r="H293" s="15"/>
+      <c r="E293" s="9"/>
+      <c r="F293" s="9"/>
+      <c r="G293" s="9"/>
+      <c r="H293" s="9"/>
     </row>
     <row r="294" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E294" s="15"/>
-      <c r="F294" s="15"/>
-      <c r="G294" s="15"/>
-      <c r="H294" s="15"/>
+      <c r="E294" s="9"/>
+      <c r="F294" s="9"/>
+      <c r="G294" s="9"/>
+      <c r="H294" s="9"/>
     </row>
     <row r="295" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E295" s="15"/>
-      <c r="F295" s="15"/>
-      <c r="G295" s="15"/>
-      <c r="H295" s="15"/>
+      <c r="E295" s="9"/>
+      <c r="F295" s="9"/>
+      <c r="G295" s="9"/>
+      <c r="H295" s="9"/>
     </row>
     <row r="296" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E296" s="15"/>
-      <c r="F296" s="15"/>
-      <c r="G296" s="15"/>
-      <c r="H296" s="15"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="9"/>
+      <c r="G296" s="9"/>
+      <c r="H296" s="9"/>
     </row>
     <row r="297" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E297" s="15"/>
-      <c r="F297" s="15"/>
-      <c r="G297" s="15"/>
-      <c r="H297" s="15"/>
+      <c r="E297" s="9"/>
+      <c r="F297" s="9"/>
+      <c r="G297" s="9"/>
+      <c r="H297" s="9"/>
     </row>
     <row r="298" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E298" s="15"/>
-      <c r="F298" s="15"/>
-      <c r="G298" s="15"/>
-      <c r="H298" s="15"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="9"/>
+      <c r="G298" s="9"/>
+      <c r="H298" s="9"/>
     </row>
     <row r="299" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E299" s="15"/>
-      <c r="F299" s="15"/>
-      <c r="G299" s="15"/>
-      <c r="H299" s="15"/>
+      <c r="E299" s="9"/>
+      <c r="F299" s="9"/>
+      <c r="G299" s="9"/>
+      <c r="H299" s="9"/>
     </row>
     <row r="300" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E300" s="15"/>
-      <c r="F300" s="15"/>
-      <c r="G300" s="15"/>
-      <c r="H300" s="15"/>
+      <c r="E300" s="9"/>
+      <c r="F300" s="9"/>
+      <c r="G300" s="9"/>
+      <c r="H300" s="9"/>
     </row>
     <row r="301" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E301" s="15"/>
-      <c r="F301" s="15"/>
-      <c r="G301" s="15"/>
-      <c r="H301" s="15"/>
+      <c r="E301" s="9"/>
+      <c r="F301" s="9"/>
+      <c r="G301" s="9"/>
+      <c r="H301" s="9"/>
     </row>
     <row r="302" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E302" s="15"/>
-      <c r="F302" s="15"/>
-      <c r="G302" s="15"/>
-      <c r="H302" s="15"/>
+      <c r="E302" s="9"/>
+      <c r="F302" s="9"/>
+      <c r="G302" s="9"/>
+      <c r="H302" s="9"/>
     </row>
     <row r="303" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E303" s="15"/>
-      <c r="F303" s="15"/>
-      <c r="G303" s="15"/>
-      <c r="H303" s="15"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="9"/>
+      <c r="G303" s="9"/>
+      <c r="H303" s="9"/>
     </row>
     <row r="304" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E304" s="15"/>
-      <c r="F304" s="15"/>
-      <c r="G304" s="15"/>
-      <c r="H304" s="15"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="9"/>
+      <c r="G304" s="9"/>
+      <c r="H304" s="9"/>
     </row>
     <row r="305" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E305" s="15"/>
-      <c r="F305" s="15"/>
-      <c r="G305" s="15"/>
-      <c r="H305" s="15"/>
+      <c r="E305" s="9"/>
+      <c r="F305" s="9"/>
+      <c r="G305" s="9"/>
+      <c r="H305" s="9"/>
     </row>
     <row r="306" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E306" s="15"/>
-      <c r="F306" s="15"/>
-      <c r="G306" s="15"/>
-      <c r="H306" s="15"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="9"/>
+      <c r="G306" s="9"/>
+      <c r="H306" s="9"/>
     </row>
     <row r="307" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E307" s="15"/>
-      <c r="F307" s="15"/>
-      <c r="G307" s="15"/>
-      <c r="H307" s="15"/>
+      <c r="E307" s="9"/>
+      <c r="F307" s="9"/>
+      <c r="G307" s="9"/>
+      <c r="H307" s="9"/>
     </row>
     <row r="308" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E308" s="15"/>
-      <c r="F308" s="15"/>
-      <c r="G308" s="15"/>
-      <c r="H308" s="15"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="9"/>
+      <c r="G308" s="9"/>
+      <c r="H308" s="9"/>
     </row>
     <row r="309" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E309" s="15"/>
-      <c r="F309" s="15"/>
-      <c r="G309" s="15"/>
-      <c r="H309" s="15"/>
+      <c r="E309" s="9"/>
+      <c r="F309" s="9"/>
+      <c r="G309" s="9"/>
+      <c r="H309" s="9"/>
     </row>
     <row r="310" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E310" s="15"/>
-      <c r="F310" s="15"/>
-      <c r="G310" s="15"/>
-      <c r="H310" s="15"/>
+      <c r="E310" s="9"/>
+      <c r="F310" s="9"/>
+      <c r="G310" s="9"/>
+      <c r="H310" s="9"/>
     </row>
     <row r="311" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E311" s="15"/>
-      <c r="F311" s="15"/>
-      <c r="G311" s="15"/>
-      <c r="H311" s="15"/>
+      <c r="E311" s="9"/>
+      <c r="F311" s="9"/>
+      <c r="G311" s="9"/>
+      <c r="H311" s="9"/>
     </row>
     <row r="312" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E312" s="15"/>
-      <c r="F312" s="15"/>
-      <c r="G312" s="15"/>
-      <c r="H312" s="15"/>
+      <c r="E312" s="9"/>
+      <c r="F312" s="9"/>
+      <c r="G312" s="9"/>
+      <c r="H312" s="9"/>
     </row>
     <row r="313" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E313" s="15"/>
-      <c r="F313" s="15"/>
-      <c r="G313" s="15"/>
-      <c r="H313" s="15"/>
+      <c r="E313" s="9"/>
+      <c r="F313" s="9"/>
+      <c r="G313" s="9"/>
+      <c r="H313" s="9"/>
     </row>
     <row r="314" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E314" s="15"/>
-      <c r="F314" s="15"/>
-      <c r="G314" s="15"/>
-      <c r="H314" s="15"/>
+      <c r="E314" s="9"/>
+      <c r="F314" s="9"/>
+      <c r="G314" s="9"/>
+      <c r="H314" s="9"/>
     </row>
     <row r="315" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E315" s="15"/>
-      <c r="F315" s="15"/>
-      <c r="G315" s="15"/>
-      <c r="H315" s="15"/>
+      <c r="E315" s="9"/>
+      <c r="F315" s="9"/>
+      <c r="G315" s="9"/>
+      <c r="H315" s="9"/>
     </row>
     <row r="316" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E316" s="15"/>
-      <c r="F316" s="15"/>
-      <c r="G316" s="15"/>
-      <c r="H316" s="15"/>
+      <c r="E316" s="9"/>
+      <c r="F316" s="9"/>
+      <c r="G316" s="9"/>
+      <c r="H316" s="9"/>
     </row>
     <row r="317" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E317" s="15"/>
-      <c r="F317" s="15"/>
-      <c r="G317" s="15"/>
-      <c r="H317" s="15"/>
+      <c r="E317" s="9"/>
+      <c r="F317" s="9"/>
+      <c r="G317" s="9"/>
+      <c r="H317" s="9"/>
     </row>
     <row r="318" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E318" s="15"/>
-      <c r="F318" s="15"/>
-      <c r="G318" s="15"/>
-      <c r="H318" s="15"/>
+      <c r="E318" s="9"/>
+      <c r="F318" s="9"/>
+      <c r="G318" s="9"/>
+      <c r="H318" s="9"/>
     </row>
     <row r="319" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E319" s="15"/>
-      <c r="F319" s="15"/>
-      <c r="G319" s="15"/>
-      <c r="H319" s="15"/>
+      <c r="E319" s="9"/>
+      <c r="F319" s="9"/>
+      <c r="G319" s="9"/>
+      <c r="H319" s="9"/>
     </row>
     <row r="320" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E320" s="15"/>
-      <c r="F320" s="15"/>
-      <c r="G320" s="15"/>
-      <c r="H320" s="15"/>
+      <c r="E320" s="9"/>
+      <c r="F320" s="9"/>
+      <c r="G320" s="9"/>
+      <c r="H320" s="9"/>
     </row>
     <row r="321" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E321" s="15"/>
-      <c r="F321" s="15"/>
-      <c r="G321" s="15"/>
-      <c r="H321" s="15"/>
+      <c r="E321" s="9"/>
+      <c r="F321" s="9"/>
+      <c r="G321" s="9"/>
+      <c r="H321" s="9"/>
     </row>
     <row r="322" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E322" s="15"/>
-      <c r="F322" s="15"/>
-      <c r="G322" s="15"/>
-      <c r="H322" s="15"/>
+      <c r="E322" s="9"/>
+      <c r="F322" s="9"/>
+      <c r="G322" s="9"/>
+      <c r="H322" s="9"/>
     </row>
     <row r="323" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E323" s="15"/>
-      <c r="F323" s="15"/>
-      <c r="G323" s="15"/>
-      <c r="H323" s="15"/>
+      <c r="E323" s="9"/>
+      <c r="F323" s="9"/>
+      <c r="G323" s="9"/>
+      <c r="H323" s="9"/>
     </row>
     <row r="324" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E324" s="15"/>
-      <c r="F324" s="15"/>
-      <c r="G324" s="15"/>
-      <c r="H324" s="15"/>
+      <c r="E324" s="9"/>
+      <c r="F324" s="9"/>
+      <c r="G324" s="9"/>
+      <c r="H324" s="9"/>
     </row>
     <row r="325" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E325" s="15"/>
-      <c r="F325" s="15"/>
-      <c r="G325" s="15"/>
-      <c r="H325" s="15"/>
+      <c r="E325" s="9"/>
+      <c r="F325" s="9"/>
+      <c r="G325" s="9"/>
+      <c r="H325" s="9"/>
     </row>
     <row r="326" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E326" s="15"/>
-      <c r="F326" s="15"/>
-      <c r="G326" s="15"/>
-      <c r="H326" s="15"/>
+      <c r="E326" s="9"/>
+      <c r="F326" s="9"/>
+      <c r="G326" s="9"/>
+      <c r="H326" s="9"/>
     </row>
     <row r="327" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E327" s="15"/>
-      <c r="F327" s="15"/>
-      <c r="G327" s="15"/>
-      <c r="H327" s="15"/>
+      <c r="E327" s="9"/>
+      <c r="F327" s="9"/>
+      <c r="G327" s="9"/>
+      <c r="H327" s="9"/>
     </row>
     <row r="328" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E328" s="15"/>
-      <c r="F328" s="15"/>
-      <c r="G328" s="15"/>
-      <c r="H328" s="15"/>
+      <c r="E328" s="9"/>
+      <c r="F328" s="9"/>
+      <c r="G328" s="9"/>
+      <c r="H328" s="9"/>
     </row>
     <row r="329" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E329" s="15"/>
-      <c r="F329" s="15"/>
-      <c r="G329" s="15"/>
-      <c r="H329" s="15"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="9"/>
+      <c r="G329" s="9"/>
+      <c r="H329" s="9"/>
     </row>
     <row r="330" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E330" s="15"/>
-      <c r="F330" s="15"/>
-      <c r="G330" s="15"/>
-      <c r="H330" s="15"/>
+      <c r="E330" s="9"/>
+      <c r="F330" s="9"/>
+      <c r="G330" s="9"/>
+      <c r="H330" s="9"/>
     </row>
     <row r="331" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E331" s="15"/>
-      <c r="F331" s="15"/>
-      <c r="G331" s="15"/>
-      <c r="H331" s="15"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="9"/>
+      <c r="G331" s="9"/>
+      <c r="H331" s="9"/>
     </row>
     <row r="332" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E332" s="15"/>
-      <c r="F332" s="15"/>
-      <c r="G332" s="15"/>
-      <c r="H332" s="15"/>
+      <c r="E332" s="9"/>
+      <c r="F332" s="9"/>
+      <c r="G332" s="9"/>
+      <c r="H332" s="9"/>
     </row>
     <row r="333" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E333" s="15"/>
-      <c r="F333" s="15"/>
-      <c r="G333" s="15"/>
-      <c r="H333" s="15"/>
+      <c r="E333" s="9"/>
+      <c r="F333" s="9"/>
+      <c r="G333" s="9"/>
+      <c r="H333" s="9"/>
     </row>
     <row r="334" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E334" s="15"/>
-      <c r="F334" s="15"/>
-      <c r="G334" s="15"/>
-      <c r="H334" s="15"/>
+      <c r="E334" s="9"/>
+      <c r="F334" s="9"/>
+      <c r="G334" s="9"/>
+      <c r="H334" s="9"/>
     </row>
     <row r="335" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E335" s="15"/>
-      <c r="F335" s="15"/>
-      <c r="G335" s="15"/>
-      <c r="H335" s="15"/>
+      <c r="E335" s="9"/>
+      <c r="F335" s="9"/>
+      <c r="G335" s="9"/>
+      <c r="H335" s="9"/>
     </row>
     <row r="336" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E336" s="15"/>
-      <c r="F336" s="15"/>
-      <c r="G336" s="15"/>
-      <c r="H336" s="15"/>
+      <c r="E336" s="9"/>
+      <c r="F336" s="9"/>
+      <c r="G336" s="9"/>
+      <c r="H336" s="9"/>
     </row>
     <row r="337" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E337" s="15"/>
-      <c r="F337" s="15"/>
-      <c r="G337" s="15"/>
-      <c r="H337" s="15"/>
+      <c r="E337" s="9"/>
+      <c r="F337" s="9"/>
+      <c r="G337" s="9"/>
+      <c r="H337" s="9"/>
     </row>
     <row r="338" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E338" s="15"/>
-      <c r="F338" s="15"/>
-      <c r="G338" s="15"/>
-      <c r="H338" s="15"/>
+      <c r="E338" s="9"/>
+      <c r="F338" s="9"/>
+      <c r="G338" s="9"/>
+      <c r="H338" s="9"/>
     </row>
     <row r="339" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E339" s="15"/>
-      <c r="F339" s="15"/>
-      <c r="G339" s="15"/>
-      <c r="H339" s="15"/>
+      <c r="E339" s="9"/>
+      <c r="F339" s="9"/>
+      <c r="G339" s="9"/>
+      <c r="H339" s="9"/>
     </row>
     <row r="340" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E340" s="15"/>
-      <c r="F340" s="15"/>
-      <c r="G340" s="15"/>
-      <c r="H340" s="15"/>
+      <c r="E340" s="9"/>
+      <c r="F340" s="9"/>
+      <c r="G340" s="9"/>
+      <c r="H340" s="9"/>
     </row>
     <row r="341" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E341" s="15"/>
-      <c r="F341" s="15"/>
-      <c r="G341" s="15"/>
-      <c r="H341" s="15"/>
+      <c r="E341" s="9"/>
+      <c r="F341" s="9"/>
+      <c r="G341" s="9"/>
+      <c r="H341" s="9"/>
     </row>
     <row r="342" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E342" s="15"/>
-      <c r="F342" s="15"/>
-      <c r="G342" s="15"/>
-      <c r="H342" s="15"/>
+      <c r="E342" s="9"/>
+      <c r="F342" s="9"/>
+      <c r="G342" s="9"/>
+      <c r="H342" s="9"/>
     </row>
     <row r="343" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E343" s="15"/>
-      <c r="F343" s="15"/>
-      <c r="G343" s="15"/>
-      <c r="H343" s="15"/>
+      <c r="E343" s="9"/>
+      <c r="F343" s="9"/>
+      <c r="G343" s="9"/>
+      <c r="H343" s="9"/>
     </row>
     <row r="344" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E344" s="15"/>
-      <c r="F344" s="15"/>
-      <c r="G344" s="15"/>
-      <c r="H344" s="15"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="9"/>
+      <c r="G344" s="9"/>
+      <c r="H344" s="9"/>
     </row>
     <row r="345" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E345" s="15"/>
-      <c r="F345" s="15"/>
-      <c r="G345" s="15"/>
-      <c r="H345" s="15"/>
+      <c r="E345" s="9"/>
+      <c r="F345" s="9"/>
+      <c r="G345" s="9"/>
+      <c r="H345" s="9"/>
     </row>
     <row r="346" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E346" s="15"/>
-      <c r="F346" s="15"/>
-      <c r="G346" s="15"/>
-      <c r="H346" s="15"/>
+      <c r="E346" s="9"/>
+      <c r="F346" s="9"/>
+      <c r="G346" s="9"/>
+      <c r="H346" s="9"/>
     </row>
     <row r="347" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E347" s="15"/>
-      <c r="F347" s="15"/>
-      <c r="G347" s="15"/>
-      <c r="H347" s="15"/>
+      <c r="E347" s="9"/>
+      <c r="F347" s="9"/>
+      <c r="G347" s="9"/>
+      <c r="H347" s="9"/>
     </row>
     <row r="348" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E348" s="15"/>
-      <c r="F348" s="15"/>
-      <c r="G348" s="15"/>
-      <c r="H348" s="15"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="9"/>
+      <c r="G348" s="9"/>
+      <c r="H348" s="9"/>
     </row>
     <row r="349" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E349" s="15"/>
-      <c r="F349" s="15"/>
-      <c r="G349" s="15"/>
-      <c r="H349" s="15"/>
+      <c r="E349" s="9"/>
+      <c r="F349" s="9"/>
+      <c r="G349" s="9"/>
+      <c r="H349" s="9"/>
     </row>
     <row r="350" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E350" s="15"/>
-      <c r="F350" s="15"/>
-      <c r="G350" s="15"/>
-      <c r="H350" s="15"/>
+      <c r="E350" s="9"/>
+      <c r="F350" s="9"/>
+      <c r="G350" s="9"/>
+      <c r="H350" s="9"/>
     </row>
     <row r="351" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E351" s="15"/>
-      <c r="F351" s="15"/>
-      <c r="G351" s="15"/>
-      <c r="H351" s="15"/>
+      <c r="E351" s="9"/>
+      <c r="F351" s="9"/>
+      <c r="G351" s="9"/>
+      <c r="H351" s="9"/>
     </row>
     <row r="352" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E352" s="15"/>
-      <c r="F352" s="15"/>
-      <c r="G352" s="15"/>
-      <c r="H352" s="15"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="9"/>
+      <c r="G352" s="9"/>
+      <c r="H352" s="9"/>
     </row>
     <row r="353" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E353" s="15"/>
-      <c r="F353" s="15"/>
-      <c r="G353" s="15"/>
-      <c r="H353" s="15"/>
+      <c r="E353" s="9"/>
+      <c r="F353" s="9"/>
+      <c r="G353" s="9"/>
+      <c r="H353" s="9"/>
     </row>
     <row r="354" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E354" s="15"/>
-      <c r="F354" s="15"/>
-      <c r="G354" s="15"/>
-      <c r="H354" s="15"/>
+      <c r="E354" s="9"/>
+      <c r="F354" s="9"/>
+      <c r="G354" s="9"/>
+      <c r="H354" s="9"/>
     </row>
     <row r="355" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E355" s="15"/>
-      <c r="F355" s="15"/>
-      <c r="G355" s="15"/>
-      <c r="H355" s="15"/>
+      <c r="E355" s="9"/>
+      <c r="F355" s="9"/>
+      <c r="G355" s="9"/>
+      <c r="H355" s="9"/>
     </row>
     <row r="356" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E356" s="15"/>
-      <c r="F356" s="15"/>
-      <c r="G356" s="15"/>
-      <c r="H356" s="15"/>
+      <c r="E356" s="9"/>
+      <c r="F356" s="9"/>
+      <c r="G356" s="9"/>
+      <c r="H356" s="9"/>
     </row>
     <row r="357" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E357" s="15"/>
-      <c r="F357" s="15"/>
-      <c r="G357" s="15"/>
-      <c r="H357" s="15"/>
+      <c r="E357" s="9"/>
+      <c r="F357" s="9"/>
+      <c r="G357" s="9"/>
+      <c r="H357" s="9"/>
     </row>
     <row r="358" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E358" s="15"/>
-      <c r="F358" s="15"/>
-      <c r="G358" s="15"/>
-      <c r="H358" s="15"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="9"/>
+      <c r="G358" s="9"/>
+      <c r="H358" s="9"/>
     </row>
     <row r="359" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E359" s="15"/>
-      <c r="F359" s="15"/>
-      <c r="G359" s="15"/>
-      <c r="H359" s="15"/>
+      <c r="E359" s="9"/>
+      <c r="F359" s="9"/>
+      <c r="G359" s="9"/>
+      <c r="H359" s="9"/>
     </row>
     <row r="360" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E360" s="15"/>
-      <c r="F360" s="15"/>
-      <c r="G360" s="15"/>
-      <c r="H360" s="15"/>
+      <c r="E360" s="9"/>
+      <c r="F360" s="9"/>
+      <c r="G360" s="9"/>
+      <c r="H360" s="9"/>
     </row>
     <row r="361" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E361" s="15"/>
-      <c r="F361" s="15"/>
-      <c r="G361" s="15"/>
-      <c r="H361" s="15"/>
+      <c r="E361" s="9"/>
+      <c r="F361" s="9"/>
+      <c r="G361" s="9"/>
+      <c r="H361" s="9"/>
     </row>
     <row r="362" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E362" s="15"/>
-      <c r="F362" s="15"/>
-      <c r="G362" s="15"/>
-      <c r="H362" s="15"/>
+      <c r="E362" s="9"/>
+      <c r="F362" s="9"/>
+      <c r="G362" s="9"/>
+      <c r="H362" s="9"/>
     </row>
     <row r="363" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E363" s="15"/>
-      <c r="F363" s="15"/>
-      <c r="G363" s="15"/>
-      <c r="H363" s="15"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="9"/>
+      <c r="G363" s="9"/>
+      <c r="H363" s="9"/>
     </row>
     <row r="364" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E364" s="15"/>
-      <c r="F364" s="15"/>
-      <c r="G364" s="15"/>
-      <c r="H364" s="15"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="9"/>
+      <c r="G364" s="9"/>
+      <c r="H364" s="9"/>
     </row>
     <row r="365" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E365" s="15"/>
-      <c r="F365" s="15"/>
-      <c r="G365" s="15"/>
-      <c r="H365" s="15"/>
+      <c r="E365" s="9"/>
+      <c r="F365" s="9"/>
+      <c r="G365" s="9"/>
+      <c r="H365" s="9"/>
     </row>
     <row r="366" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E366" s="15"/>
-      <c r="F366" s="15"/>
-      <c r="G366" s="15"/>
-      <c r="H366" s="15"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="9"/>
+      <c r="G366" s="9"/>
+      <c r="H366" s="9"/>
     </row>
     <row r="367" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E367" s="15"/>
-      <c r="F367" s="15"/>
-      <c r="G367" s="15"/>
-      <c r="H367" s="15"/>
+      <c r="E367" s="9"/>
+      <c r="F367" s="9"/>
+      <c r="G367" s="9"/>
+      <c r="H367" s="9"/>
     </row>
     <row r="368" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E368" s="15"/>
-      <c r="F368" s="15"/>
-      <c r="G368" s="15"/>
-      <c r="H368" s="15"/>
+      <c r="E368" s="9"/>
+      <c r="F368" s="9"/>
+      <c r="G368" s="9"/>
+      <c r="H368" s="9"/>
     </row>
     <row r="369" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E369" s="15"/>
-      <c r="F369" s="15"/>
-      <c r="G369" s="15"/>
-      <c r="H369" s="15"/>
+      <c r="E369" s="9"/>
+      <c r="F369" s="9"/>
+      <c r="G369" s="9"/>
+      <c r="H369" s="9"/>
     </row>
     <row r="370" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E370" s="15"/>
-      <c r="F370" s="15"/>
-      <c r="G370" s="15"/>
-      <c r="H370" s="15"/>
+      <c r="E370" s="9"/>
+      <c r="F370" s="9"/>
+      <c r="G370" s="9"/>
+      <c r="H370" s="9"/>
     </row>
     <row r="371" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E371" s="15"/>
-      <c r="F371" s="15"/>
-      <c r="G371" s="15"/>
-      <c r="H371" s="15"/>
+      <c r="E371" s="9"/>
+      <c r="F371" s="9"/>
+      <c r="G371" s="9"/>
+      <c r="H371" s="9"/>
     </row>
     <row r="372" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E372" s="15"/>
-      <c r="F372" s="15"/>
-      <c r="G372" s="15"/>
-      <c r="H372" s="15"/>
+      <c r="E372" s="9"/>
+      <c r="F372" s="9"/>
+      <c r="G372" s="9"/>
+      <c r="H372" s="9"/>
     </row>
     <row r="373" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E373" s="15"/>
-      <c r="F373" s="15"/>
-      <c r="G373" s="15"/>
-      <c r="H373" s="15"/>
+      <c r="E373" s="9"/>
+      <c r="F373" s="9"/>
+      <c r="G373" s="9"/>
+      <c r="H373" s="9"/>
     </row>
     <row r="374" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E374" s="15"/>
-      <c r="F374" s="15"/>
-      <c r="G374" s="15"/>
-      <c r="H374" s="15"/>
+      <c r="E374" s="9"/>
+      <c r="F374" s="9"/>
+      <c r="G374" s="9"/>
+      <c r="H374" s="9"/>
     </row>
     <row r="375" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E375" s="15"/>
-      <c r="F375" s="15"/>
-      <c r="G375" s="15"/>
-      <c r="H375" s="15"/>
+      <c r="E375" s="9"/>
+      <c r="F375" s="9"/>
+      <c r="G375" s="9"/>
+      <c r="H375" s="9"/>
     </row>
     <row r="376" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E376" s="15"/>
-      <c r="F376" s="15"/>
-      <c r="G376" s="15"/>
-      <c r="H376" s="15"/>
+      <c r="E376" s="9"/>
+      <c r="F376" s="9"/>
+      <c r="G376" s="9"/>
+      <c r="H376" s="9"/>
     </row>
     <row r="377" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E377" s="15"/>
-      <c r="F377" s="15"/>
-      <c r="G377" s="15"/>
-      <c r="H377" s="15"/>
+      <c r="E377" s="9"/>
+      <c r="F377" s="9"/>
+      <c r="G377" s="9"/>
+      <c r="H377" s="9"/>
     </row>
     <row r="378" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E378" s="15"/>
-      <c r="F378" s="15"/>
-      <c r="G378" s="15"/>
-      <c r="H378" s="15"/>
+      <c r="E378" s="9"/>
+      <c r="F378" s="9"/>
+      <c r="G378" s="9"/>
+      <c r="H378" s="9"/>
     </row>
     <row r="379" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E379" s="15"/>
-      <c r="F379" s="15"/>
-      <c r="G379" s="15"/>
-      <c r="H379" s="15"/>
+      <c r="E379" s="9"/>
+      <c r="F379" s="9"/>
+      <c r="G379" s="9"/>
+      <c r="H379" s="9"/>
     </row>
     <row r="380" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E380" s="15"/>
-      <c r="F380" s="15"/>
-      <c r="G380" s="15"/>
-      <c r="H380" s="15"/>
+      <c r="E380" s="9"/>
+      <c r="F380" s="9"/>
+      <c r="G380" s="9"/>
+      <c r="H380" s="9"/>
     </row>
     <row r="381" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E381" s="15"/>
-      <c r="F381" s="15"/>
-      <c r="G381" s="15"/>
-      <c r="H381" s="15"/>
+      <c r="E381" s="9"/>
+      <c r="F381" s="9"/>
+      <c r="G381" s="9"/>
+      <c r="H381" s="9"/>
     </row>
     <row r="382" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E382" s="15"/>
-      <c r="F382" s="15"/>
-      <c r="G382" s="15"/>
-      <c r="H382" s="15"/>
+      <c r="E382" s="9"/>
+      <c r="F382" s="9"/>
+      <c r="G382" s="9"/>
+      <c r="H382" s="9"/>
     </row>
     <row r="383" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E383" s="15"/>
-      <c r="F383" s="15"/>
-      <c r="G383" s="15"/>
-      <c r="H383" s="15"/>
+      <c r="E383" s="9"/>
+      <c r="F383" s="9"/>
+      <c r="G383" s="9"/>
+      <c r="H383" s="9"/>
     </row>
     <row r="384" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E384" s="15"/>
-      <c r="F384" s="15"/>
-      <c r="G384" s="15"/>
-      <c r="H384" s="15"/>
+      <c r="E384" s="9"/>
+      <c r="F384" s="9"/>
+      <c r="G384" s="9"/>
+      <c r="H384" s="9"/>
     </row>
     <row r="385" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E385" s="15"/>
-      <c r="F385" s="15"/>
-      <c r="G385" s="15"/>
-      <c r="H385" s="15"/>
+      <c r="E385" s="9"/>
+      <c r="F385" s="9"/>
+      <c r="G385" s="9"/>
+      <c r="H385" s="9"/>
     </row>
     <row r="386" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E386" s="15"/>
-      <c r="F386" s="15"/>
-      <c r="G386" s="15"/>
-      <c r="H386" s="15"/>
+      <c r="E386" s="9"/>
+      <c r="F386" s="9"/>
+      <c r="G386" s="9"/>
+      <c r="H386" s="9"/>
     </row>
     <row r="387" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E387" s="15"/>
-      <c r="F387" s="15"/>
-      <c r="G387" s="15"/>
-      <c r="H387" s="15"/>
+      <c r="E387" s="9"/>
+      <c r="F387" s="9"/>
+      <c r="G387" s="9"/>
+      <c r="H387" s="9"/>
     </row>
     <row r="388" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E388" s="15"/>
-      <c r="F388" s="15"/>
-      <c r="G388" s="15"/>
-      <c r="H388" s="15"/>
+      <c r="E388" s="9"/>
+      <c r="F388" s="9"/>
+      <c r="G388" s="9"/>
+      <c r="H388" s="9"/>
     </row>
     <row r="389" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E389" s="15"/>
-      <c r="F389" s="15"/>
-      <c r="G389" s="15"/>
-      <c r="H389" s="15"/>
+      <c r="E389" s="9"/>
+      <c r="F389" s="9"/>
+      <c r="G389" s="9"/>
+      <c r="H389" s="9"/>
     </row>
     <row r="390" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E390" s="15"/>
-      <c r="F390" s="15"/>
-      <c r="G390" s="15"/>
-      <c r="H390" s="15"/>
+      <c r="E390" s="9"/>
+      <c r="F390" s="9"/>
+      <c r="G390" s="9"/>
+      <c r="H390" s="9"/>
     </row>
     <row r="391" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E391" s="15"/>
-      <c r="F391" s="15"/>
-      <c r="G391" s="15"/>
-      <c r="H391" s="15"/>
+      <c r="E391" s="9"/>
+      <c r="F391" s="9"/>
+      <c r="G391" s="9"/>
+      <c r="H391" s="9"/>
     </row>
     <row r="392" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E392" s="15"/>
-      <c r="F392" s="15"/>
-      <c r="G392" s="15"/>
-      <c r="H392" s="15"/>
+      <c r="E392" s="9"/>
+      <c r="F392" s="9"/>
+      <c r="G392" s="9"/>
+      <c r="H392" s="9"/>
     </row>
     <row r="393" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E393" s="15"/>
-      <c r="F393" s="15"/>
-      <c r="G393" s="15"/>
-      <c r="H393" s="15"/>
+      <c r="E393" s="9"/>
+      <c r="F393" s="9"/>
+      <c r="G393" s="9"/>
+      <c r="H393" s="9"/>
     </row>
     <row r="394" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E394" s="15"/>
-      <c r="F394" s="15"/>
-      <c r="G394" s="15"/>
-      <c r="H394" s="15"/>
+      <c r="E394" s="9"/>
+      <c r="F394" s="9"/>
+      <c r="G394" s="9"/>
+      <c r="H394" s="9"/>
     </row>
     <row r="395" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E395" s="15"/>
-      <c r="F395" s="15"/>
-      <c r="G395" s="15"/>
-      <c r="H395" s="15"/>
+      <c r="E395" s="9"/>
+      <c r="F395" s="9"/>
+      <c r="G395" s="9"/>
+      <c r="H395" s="9"/>
     </row>
     <row r="396" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E396" s="15"/>
-      <c r="F396" s="15"/>
-      <c r="G396" s="15"/>
-      <c r="H396" s="15"/>
+      <c r="E396" s="9"/>
+      <c r="F396" s="9"/>
+      <c r="G396" s="9"/>
+      <c r="H396" s="9"/>
     </row>
     <row r="397" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E397" s="15"/>
-      <c r="F397" s="15"/>
-      <c r="G397" s="15"/>
-      <c r="H397" s="15"/>
+      <c r="E397" s="9"/>
+      <c r="F397" s="9"/>
+      <c r="G397" s="9"/>
+      <c r="H397" s="9"/>
     </row>
     <row r="398" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E398" s="15"/>
-      <c r="F398" s="15"/>
-      <c r="G398" s="15"/>
-      <c r="H398" s="15"/>
+      <c r="E398" s="9"/>
+      <c r="F398" s="9"/>
+      <c r="G398" s="9"/>
+      <c r="H398" s="9"/>
     </row>
     <row r="399" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E399" s="15"/>
-      <c r="F399" s="15"/>
-      <c r="G399" s="15"/>
-      <c r="H399" s="15"/>
+      <c r="E399" s="9"/>
+      <c r="F399" s="9"/>
+      <c r="G399" s="9"/>
+      <c r="H399" s="9"/>
     </row>
     <row r="400" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E400" s="15"/>
-      <c r="F400" s="15"/>
-      <c r="G400" s="15"/>
-      <c r="H400" s="15"/>
+      <c r="E400" s="9"/>
+      <c r="F400" s="9"/>
+      <c r="G400" s="9"/>
+      <c r="H400" s="9"/>
     </row>
     <row r="401" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E401" s="15"/>
-      <c r="F401" s="15"/>
-      <c r="G401" s="15"/>
-      <c r="H401" s="15"/>
+      <c r="E401" s="9"/>
+      <c r="F401" s="9"/>
+      <c r="G401" s="9"/>
+      <c r="H401" s="9"/>
     </row>
     <row r="402" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E402" s="15"/>
-      <c r="F402" s="15"/>
-      <c r="G402" s="15"/>
-      <c r="H402" s="15"/>
+      <c r="E402" s="9"/>
+      <c r="F402" s="9"/>
+      <c r="G402" s="9"/>
+      <c r="H402" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
